--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3EDC0AF-D545-48E4-B8FA-6D3164F150AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BFB58C-6257-4A2A-99FA-66289BFDA4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="990" windowWidth="19665" windowHeight="15210" activeTab="1" xr2:uid="{B3F12390-B803-41F7-A0B1-65A97656B711}"/>
+    <workbookView xWindow="9300" yWindow="390" windowWidth="19320" windowHeight="14700" activeTab="1" xr2:uid="{B3F12390-B803-41F7-A0B1-65A97656B711}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
   <si>
     <t>Price</t>
   </si>
@@ -457,7 +457,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -799,9 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A6FF0E-5644-4F51-A6BC-5804C047E9B5}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -918,13 +916,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E241C3-CEF2-4D80-8F27-1C06F4DB1898}">
-  <dimension ref="A1:AA79"/>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1084,8 +1082,14 @@
       <c r="G4" s="4">
         <v>112</v>
       </c>
+      <c r="H4" s="4">
+        <v>110</v>
+      </c>
       <c r="K4" s="4">
         <v>95</v>
+      </c>
+      <c r="L4" s="4">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1099,13 +1103,17 @@
       <c r="G5" s="6">
         <v>934</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6">
+        <v>938</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6">
         <v>1057</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <v>1095</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
@@ -1121,14 +1129,18 @@
         <f>SUM(G7:G8)</f>
         <v>2859</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <v>2787</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6">
         <f>SUM(K7:K8)</f>
         <v>3110</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6">
+        <v>3200</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
@@ -1143,13 +1155,17 @@
       <c r="G7" s="6">
         <v>2379</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6">
+        <v>2318</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6">
         <v>2548</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6">
+        <v>2605</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
@@ -1164,13 +1180,17 @@
       <c r="G8" s="6">
         <v>480</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6">
+        <v>469</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6">
         <v>562</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <v>595</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
@@ -1199,13 +1219,17 @@
       <c r="G10" s="6">
         <v>2224</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6">
+        <v>2185</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6">
         <v>2446</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6">
+        <v>2524</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
@@ -1220,13 +1244,17 @@
       <c r="G11" s="6">
         <v>1052</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>1026</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6">
         <v>1136</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <v>1157</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
@@ -1241,13 +1269,17 @@
       <c r="G12" s="6">
         <v>629</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <v>624</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6">
         <v>680</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6">
+        <v>705</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
@@ -2334,7 +2366,10 @@
         <f>K28</f>
         <v>1317</v>
       </c>
-      <c r="L59" s="6"/>
+      <c r="L59" s="6">
+        <f>L28</f>
+        <v>1228</v>
+      </c>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
@@ -2353,7 +2388,10 @@
       <c r="K60" s="6">
         <v>1266</v>
       </c>
-      <c r="L60" s="6"/>
+      <c r="L60" s="6">
+        <f>2444-K60</f>
+        <v>1178</v>
+      </c>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
@@ -2372,7 +2410,10 @@
       <c r="K61" s="6">
         <v>213</v>
       </c>
-      <c r="L61" s="6"/>
+      <c r="L61" s="6">
+        <f>425-K61</f>
+        <v>212</v>
+      </c>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
@@ -2391,13 +2432,16 @@
       <c r="K62" s="6">
         <v>322</v>
       </c>
-      <c r="L62" s="6"/>
+      <c r="L62" s="6">
+        <f>674-K62</f>
+        <v>352</v>
+      </c>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
     <row r="63" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2408,15 +2452,18 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6">
-        <v>17</v>
-      </c>
-      <c r="L63" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="6">
+        <f>42-K63</f>
+        <v>42</v>
+      </c>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
     <row r="64" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2427,15 +2474,18 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6">
-        <v>153</v>
-      </c>
-      <c r="L64" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="6">
+        <f>197-K64</f>
+        <v>197</v>
+      </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
     <row r="65" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2446,15 +2496,18 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6">
-        <v>141</v>
-      </c>
-      <c r="L65" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="L65" s="6">
+        <f>27-K65</f>
+        <v>10</v>
+      </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
     <row r="66" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2465,15 +2518,18 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6">
-        <v>-343</v>
-      </c>
-      <c r="L66" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="L66" s="6">
+        <f>2-K66</f>
+        <v>-151</v>
+      </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
     <row r="67" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2484,14 +2540,19 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6">
-        <f>SUM(K60:K66)</f>
-        <v>1769</v>
-      </c>
-      <c r="L67" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="L67" s="6">
+        <f>0-K67</f>
+        <v>-141</v>
+      </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
     <row r="68" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -2500,14 +2561,19 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+      <c r="K68" s="6">
+        <v>-343</v>
+      </c>
+      <c r="L68" s="6">
+        <f>287-140+60-187-20-2-K68</f>
+        <v>341</v>
+      </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
     <row r="69" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2518,17 +2584,17 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6">
-        <f>-288+208+54</f>
-        <v>-26</v>
-      </c>
-      <c r="L69" s="6"/>
+        <f>SUM(K60:K68)</f>
+        <v>1769</v>
+      </c>
+      <c r="L69" s="6">
+        <f>SUM(L60:L68)</f>
+        <v>2040</v>
+      </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
     <row r="70" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -2537,17 +2603,14 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="6">
-        <f>-106-28</f>
-        <v>-134</v>
-      </c>
+      <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
     <row r="71" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2558,15 +2621,19 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6">
-        <v>-100</v>
-      </c>
-      <c r="L71" s="6"/>
+        <f>-288+208+54</f>
+        <v>-26</v>
+      </c>
+      <c r="L71" s="6">
+        <f>-524+349+159-K71-30</f>
+        <v>-20</v>
+      </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
     <row r="72" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2577,14 +2644,20 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6">
-        <f>SUM(K69:K71)</f>
-        <v>-260</v>
-      </c>
-      <c r="L72" s="6"/>
+        <f>-106-28</f>
+        <v>-134</v>
+      </c>
+      <c r="L72" s="6">
+        <f>-126-K72</f>
+        <v>8</v>
+      </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
     <row r="73" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -2593,14 +2666,19 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+      <c r="K73" s="6">
+        <v>-100</v>
+      </c>
+      <c r="L73" s="6">
+        <f>-226-K73</f>
+        <v>-126</v>
+      </c>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
     <row r="74" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2611,17 +2689,17 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6">
-        <f>-2400+91</f>
-        <v>-2309</v>
-      </c>
-      <c r="L74" s="6"/>
+        <f>SUM(K71:K73)</f>
+        <v>-260</v>
+      </c>
+      <c r="L74" s="6">
+        <f>SUM(L71:L73)</f>
+        <v>-138</v>
+      </c>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
     <row r="75" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -2630,16 +2708,14 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="6">
-        <v>-266</v>
-      </c>
+      <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
     <row r="76" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2650,15 +2726,19 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6">
-        <v>-29</v>
-      </c>
-      <c r="L76" s="6"/>
+        <f>-2400+91</f>
+        <v>-2309</v>
+      </c>
+      <c r="L76" s="6">
+        <f>-3600-K76+91</f>
+        <v>-1200</v>
+      </c>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
     </row>
     <row r="77" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2669,16 +2749,18 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6">
-        <f>SUM(K74:K76)</f>
-        <v>-2604</v>
-      </c>
-      <c r="L77" s="6"/>
+        <v>-266</v>
+      </c>
+      <c r="L77" s="6">
+        <f>-367-K77</f>
+        <v>-101</v>
+      </c>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
     </row>
     <row r="78" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2689,19 +2771,71 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6">
-        <v>-10</v>
-      </c>
-      <c r="L78" s="6"/>
+        <v>-29</v>
+      </c>
+      <c r="L78" s="6">
+        <f>22-K78</f>
+        <v>51</v>
+      </c>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6">
+        <f>SUM(K76:K78)</f>
+        <v>-2604</v>
+      </c>
+      <c r="L79" s="6">
+        <f>SUM(L76:L78)</f>
+        <v>-1250</v>
+      </c>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+    </row>
+    <row r="80" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6">
+        <v>-10</v>
+      </c>
+      <c r="L80" s="6">
+        <f>-36-K80</f>
+        <v>-26</v>
+      </c>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K79" s="6">
-        <f>K78+K77+K72+K67</f>
+      <c r="K81" s="6">
+        <f>K80+K79+K74+K69</f>
         <v>-1105</v>
+      </c>
+      <c r="L81" s="6">
+        <f>L80+L79+L74+L69</f>
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7CC435-EF6E-4C80-95F9-9BDE4A514245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25A51A-F63F-481C-BA3E-18A7CD6CB281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="78045" yWindow="1050" windowWidth="25035" windowHeight="19590" activeTab="1" xr2:uid="{B3F12390-B803-41F7-A0B1-65A97656B711}"/>
+    <workbookView xWindow="53670" yWindow="375" windowWidth="18150" windowHeight="18405" activeTab="1" xr2:uid="{B3F12390-B803-41F7-A0B1-65A97656B711}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
   <si>
     <t>Price</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Q422</t>
   </si>
   <si>
-    <t>Subscriptition</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -351,6 +348,24 @@
   </si>
   <si>
     <t>RPO y/y</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>CFFO TTM</t>
+  </si>
+  <si>
+    <t>CFFO TTM y/y</t>
+  </si>
+  <si>
+    <t>FCF TTM</t>
   </si>
 </sst>
 </file>
@@ -358,7 +373,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -416,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -438,10 +453,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,15 +481,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>60764</xdr:colOff>
+      <xdr:colOff>25045</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>60764</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>25045</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -488,8 +504,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8173436" y="0"/>
-          <a:ext cx="0" cy="14344650"/>
+          <a:off x="8168920" y="0"/>
+          <a:ext cx="0" cy="16257984"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>16711</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>16711</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>65484</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE80C6D4-33A2-4BC8-A302-30C3049C7B34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11857477" y="0"/>
+          <a:ext cx="0" cy="15335250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -814,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A6FF0E-5644-4F51-A6BC-5804C047E9B5}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -829,7 +895,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -840,7 +906,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
@@ -854,7 +920,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s">
         <v>2</v>
@@ -866,7 +932,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
         <v>3</v>
@@ -880,7 +946,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
@@ -894,7 +960,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
@@ -906,30 +972,31 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -940,13 +1007,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E241C3-CEF2-4D80-8F27-1C06F4DB1898}">
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AB91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -956,15 +1023,15 @@
     <col min="3" max="5" width="9" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="4" customWidth="1"/>
     <col min="7" max="14" width="9" style="4" customWidth="1"/>
-    <col min="17" max="27" width="9.5703125" customWidth="1"/>
+    <col min="18" max="28" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -993,54 +1060,54 @@
         <v>44806</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="Q2" s="11">
+      <c r="R2" s="11">
         <f>+F2</f>
         <v>44162</v>
       </c>
-      <c r="R2" s="11">
+      <c r="S2" s="11">
         <f>+J2</f>
         <v>44533</v>
       </c>
-      <c r="S2" s="11">
-        <f>+R2+365</f>
+      <c r="T2" s="11">
+        <f>+S2+365</f>
         <v>44898</v>
       </c>
-      <c r="T2" s="11">
-        <f t="shared" ref="T2:AA2" si="0">+S2+365</f>
+      <c r="U2" s="11">
+        <f t="shared" ref="U2:AB2" si="0">+T2+365</f>
         <v>45263</v>
       </c>
-      <c r="U2" s="11">
+      <c r="V2" s="11">
         <f t="shared" si="0"/>
         <v>45628</v>
       </c>
-      <c r="V2" s="11">
+      <c r="W2" s="11">
         <f t="shared" si="0"/>
         <v>45993</v>
       </c>
-      <c r="W2" s="11">
+      <c r="X2" s="11">
         <f t="shared" si="0"/>
         <v>46358</v>
       </c>
-      <c r="X2" s="11">
+      <c r="Y2" s="11">
         <f t="shared" si="0"/>
         <v>46723</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Z2" s="11">
         <f t="shared" si="0"/>
         <v>47088</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="AA2" s="11">
         <f t="shared" si="0"/>
         <v>47453</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AB2" s="11">
         <f t="shared" si="0"/>
         <v>47818</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -1079,42 +1146,45 @@
         <v>18</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1142,7 +1212,6 @@
         <v>14110</v>
       </c>
       <c r="N4" s="5"/>
-      <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -1153,9 +1222,9 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Q5" s="4"/>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -1166,10 +1235,11 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="4">
         <v>112</v>
@@ -1183,10 +1253,19 @@
       <c r="L6" s="4">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>669</v>
+      </c>
+      <c r="R6">
+        <v>510</v>
+      </c>
+      <c r="S6">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1212,10 +1291,19 @@
         <v>1120</v>
       </c>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="3">
+        <v>2795</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3125</v>
+      </c>
+      <c r="S7" s="3">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1241,10 +1329,22 @@
         <v>3230</v>
       </c>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <f>+Q9+Q10</f>
+        <v>7707</v>
+      </c>
+      <c r="R8" s="3">
+        <f>+R9+R10</f>
+        <v>9233</v>
+      </c>
+      <c r="S8" s="3">
+        <f>+S9+S10</f>
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1268,10 +1368,19 @@
         <v>2630</v>
       </c>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>6482</v>
+      </c>
+      <c r="R9" s="3">
+        <v>7736</v>
+      </c>
+      <c r="S9" s="3">
+        <v>9546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1295,8 +1404,17 @@
         <v>607</v>
       </c>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>1225</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1497</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1310,9 +1428,9 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1334,10 +1452,19 @@
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>6506</v>
+      </c>
+      <c r="R12" s="3">
+        <v>7454</v>
+      </c>
+      <c r="S12" s="3">
+        <v>8996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1359,10 +1486,19 @@
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>2975</v>
+      </c>
+      <c r="R13" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S13" s="3">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1384,10 +1520,19 @@
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>1690</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2014</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1416,11 +1561,28 @@
       <c r="M16" s="5">
         <v>4128</v>
       </c>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="5">
+        <f>+J16*1.1</f>
+        <v>4193.2000000000007</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>9634</v>
+      </c>
+      <c r="R16" s="3">
+        <v>11626</v>
+      </c>
+      <c r="S16" s="3">
+        <f>SUM(G16:J16)</f>
+        <v>14573</v>
+      </c>
+      <c r="T16" s="3">
+        <f>SUM(K16:N16)</f>
+        <v>16349.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1449,11 +1611,28 @@
       <c r="M17" s="5">
         <v>126</v>
       </c>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="5">
+        <f>+J17*1.1</f>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>648</v>
+      </c>
+      <c r="R17" s="3">
+        <v>507</v>
+      </c>
+      <c r="S17" s="3">
+        <f>SUM(G17:J17)</f>
+        <v>555</v>
+      </c>
+      <c r="T17" s="3">
+        <f>SUM(K17:N17)</f>
+        <v>557.79999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1482,11 +1661,28 @@
       <c r="M18" s="5">
         <v>179</v>
       </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="5">
+        <f>+J18*1.1</f>
+        <v>187.00000000000003</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>889</v>
+      </c>
+      <c r="R18" s="3">
+        <v>735</v>
+      </c>
+      <c r="S18" s="3">
+        <f>SUM(G18:J18)</f>
+        <v>657</v>
+      </c>
+      <c r="T18" s="3">
+        <f>SUM(K18:N18)</f>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1500,7 +1696,7 @@
         <v>3905</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19:N19" si="2">SUM(H16:H18)</f>
+        <f t="shared" ref="H19:M19" si="2">SUM(H16:H18)</f>
         <v>3835</v>
       </c>
       <c r="I19" s="7">
@@ -1524,13 +1720,29 @@
         <v>4433</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>SUM(N16:N18)</f>
+        <v>4521.0000000000009</v>
+      </c>
+      <c r="Q19" s="7">
+        <f>SUM(Q16:Q18)</f>
+        <v>11171</v>
+      </c>
+      <c r="R19" s="7">
+        <f>SUM(R16:R18)</f>
+        <v>12868</v>
+      </c>
+      <c r="S19" s="7">
+        <f>SUM(S16:S18)</f>
+        <v>15785</v>
+      </c>
+      <c r="T19" s="7">
+        <f>SUM(T16:T18)</f>
+        <v>17602</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1560,11 +1772,28 @@
       <c r="M20" s="5">
         <v>546</v>
       </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="5">
+        <f>+N19-N21</f>
+        <v>542.52</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1673</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1722</v>
+      </c>
+      <c r="S20" s="3">
+        <f>SUM(G20:J20)</f>
+        <v>1865</v>
+      </c>
+      <c r="T20" s="3">
+        <f>SUM(K20:N20)</f>
+        <v>2139.52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1601,11 +1830,30 @@
         <f>+M19-M20</f>
         <v>3887</v>
       </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="5">
+        <f>+N19*0.88</f>
+        <v>3978.4800000000009</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>+Q19-Q20</f>
+        <v>9498</v>
+      </c>
+      <c r="R21" s="3">
+        <f>+R19-R20</f>
+        <v>11146</v>
+      </c>
+      <c r="S21" s="3">
+        <f>+S19-S20</f>
+        <v>13920</v>
+      </c>
+      <c r="T21" s="3">
+        <f>+T19-T20</f>
+        <v>15462.48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1634,11 +1882,28 @@
       <c r="M22" s="5">
         <v>775</v>
       </c>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="5">
+        <f t="shared" ref="N22:N23" si="4">+J22*1.05</f>
+        <v>689.85</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1930</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2188</v>
+      </c>
+      <c r="S22" s="3">
+        <f>SUM(G22:J22)</f>
+        <v>2540</v>
+      </c>
+      <c r="T22" s="3">
+        <f>SUM(K22:N22)</f>
+        <v>2903.85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1667,11 +1932,28 @@
       <c r="M23" s="5">
         <v>1266</v>
       </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="5">
+        <f>+J23*1.05</f>
+        <v>1187.55</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>3244</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3591</v>
+      </c>
+      <c r="S23" s="3">
+        <f>SUM(G23:J23)</f>
+        <v>4321</v>
+      </c>
+      <c r="T23" s="3">
+        <f>SUM(K23:N23)</f>
+        <v>4858.55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1700,33 +1982,50 @@
       <c r="M24" s="5">
         <v>319</v>
       </c>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N24" s="5">
+        <f t="shared" ref="N24" si="5">+J24*1.05</f>
+        <v>287.7</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>881</v>
+      </c>
+      <c r="R24" s="3">
+        <v>968</v>
+      </c>
+      <c r="S24" s="3">
+        <f>SUM(G24:J24)</f>
+        <v>1085</v>
+      </c>
+      <c r="T24" s="3">
+        <f>SUM(K24:N24)</f>
+        <v>1166.7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5">
-        <f t="shared" ref="F25" si="4">SUM(F22:F24)</f>
+        <f t="shared" ref="F25" si="6">SUM(F22:F24)</f>
         <v>1742</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" ref="G25:J25" si="5">SUM(G22:G24)</f>
+        <f t="shared" ref="G25:J25" si="7">SUM(G22:G24)</f>
         <v>1959</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1941</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1984</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2062</v>
       </c>
       <c r="K25" s="5">
@@ -1734,40 +2033,59 @@
         <v>2128</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" ref="L25:M25" si="6">SUM(L22:L24)</f>
+        <f t="shared" ref="L25:M25" si="8">SUM(L22:L24)</f>
         <v>2276</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2360</v>
       </c>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N25" s="5">
+        <f t="shared" ref="N25" si="9">SUM(N22:N24)</f>
+        <v>2165.1</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" ref="Q25:S25" si="10">SUM(Q22:Q24)</f>
+        <v>6055</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="10"/>
+        <v>6747</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="10"/>
+        <v>7946</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" ref="T25" si="11">SUM(T22:T24)</f>
+        <v>8929.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5">
-        <f t="shared" ref="F26" si="7">F21-F25</f>
+        <f t="shared" ref="F26" si="12">F21-F25</f>
         <v>1254</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:J26" si="8">G21-G25</f>
+        <f t="shared" ref="G26:J26" si="13">G21-G25</f>
         <v>1499</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1450</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1484</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1541</v>
       </c>
       <c r="K26" s="5">
@@ -1775,18 +2093,37 @@
         <v>1622</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" ref="L26:M26" si="9">L21-L25</f>
+        <f t="shared" ref="L26:M26" si="14">L21-L25</f>
         <v>1571</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1527</v>
       </c>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="5">
+        <f t="shared" ref="N26" si="15">N21-N25</f>
+        <v>1813.380000000001</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" ref="Q26:S26" si="16">Q21-Q25</f>
+        <v>3443</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="16"/>
+        <v>4399</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="16"/>
+        <v>5974</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" ref="T26" si="17">T21-T25</f>
+        <v>6533.3799999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="4">
         <v>-27</v>
@@ -1813,10 +2150,28 @@
       <c r="M27" s="4">
         <v>-28</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="4">
+        <f>+M27</f>
+        <v>-28</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-157</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-116</v>
+      </c>
+      <c r="S27" s="3">
+        <f>SUM(G27:J27)</f>
+        <v>-109</v>
+      </c>
+      <c r="T27" s="3">
+        <f>SUM(K27:N27)</f>
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="5">
         <f>+F26+F27</f>
@@ -1827,62 +2182,103 @@
         <v>1469</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" ref="H28:M28" si="10">+H26+H27</f>
+        <f t="shared" ref="H28:N28" si="18">+H26+H27</f>
         <v>1422</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1461</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1513</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1594</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1542</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1499</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="5">
+        <f t="shared" si="18"/>
+        <v>1785.380000000001</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" ref="Q28:T28" si="19">+Q26+Q27</f>
+        <v>3286</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="19"/>
+        <v>4283</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="19"/>
+        <v>5865</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="19"/>
+        <v>6420.3799999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>172</v>
+      </c>
+      <c r="H29" s="5">
+        <v>270</v>
+      </c>
+      <c r="I29" s="5">
+        <v>206</v>
+      </c>
+      <c r="J29" s="5">
+        <v>235</v>
+      </c>
+      <c r="K29" s="5">
+        <v>277</v>
+      </c>
+      <c r="L29" s="5">
+        <v>314</v>
+      </c>
+      <c r="M29" s="5">
+        <v>320</v>
+      </c>
+      <c r="N29" s="5">
+        <f>+N28*0.2</f>
+        <v>357.07600000000025</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>254</v>
+      </c>
+      <c r="R29" s="3">
+        <v>-1084</v>
+      </c>
+      <c r="S29" s="3">
+        <f>SUM(G29:J29)</f>
+        <v>883</v>
+      </c>
+      <c r="T29" s="3">
+        <f>SUM(K29:N29)</f>
+        <v>1268.0760000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>172</v>
-      </c>
-      <c r="H29" s="4">
-        <v>270</v>
-      </c>
-      <c r="I29" s="4">
-        <v>206</v>
-      </c>
-      <c r="J29" s="4">
-        <v>235</v>
-      </c>
-      <c r="K29" s="4">
-        <v>277</v>
-      </c>
-      <c r="L29" s="4">
-        <v>314</v>
-      </c>
-      <c r="M29" s="4">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F30" s="5">
         <f>+F28-F29</f>
@@ -1893,36 +2289,56 @@
         <v>1297</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ref="H30:M30" si="11">+H28-H29</f>
+        <f t="shared" ref="H30:N30" si="20">+H28-H29</f>
         <v>1152</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1255</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1278</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1317</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1228</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1179</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="5">
+        <f t="shared" si="20"/>
+        <v>1428.3040000000008</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" ref="Q30:R30" si="21">+Q28-Q29</f>
+        <v>3032</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="21"/>
+        <v>5367</v>
+      </c>
+      <c r="S30" s="3">
+        <f>+S28-S29</f>
+        <v>4982</v>
+      </c>
+      <c r="T30" s="3">
+        <f>+T28-T29</f>
+        <v>5152.3039999999992</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" ref="F31" si="12">+F30/F32</f>
+        <f t="shared" ref="F31" si="22">+F30/F32</f>
         <v>2.5351239669421486</v>
       </c>
       <c r="G31" s="8">
@@ -1930,65 +2346,106 @@
         <v>2.6853002070393375</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" ref="H31:M31" si="13">+H30/H32</f>
+        <f t="shared" ref="H31:N31" si="23">+H30/H32</f>
         <v>2.3950103950103951</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.6091476091476093</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.6625000000000001</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.7726315789473683</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.5961945031712474</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.5138592750533051</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="8">
+        <f t="shared" si="23"/>
+        <v>3.045424307036249</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" ref="Q31:R31" si="24">+Q30/Q32</f>
+        <v>6.1626016260162606</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="24"/>
+        <v>11.065979381443299</v>
+      </c>
+      <c r="S31" s="1">
+        <f>+S30/S32</f>
+        <v>10.352207792207793</v>
+      </c>
+      <c r="T31" s="1">
+        <f>+T30/T32</f>
+        <v>10.927474019088015</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="4">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
         <v>484</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>483</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>481</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="5">
         <v>481</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="5">
         <v>480</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="5">
         <v>475</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="5">
         <v>473</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="5">
         <v>469</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="5">
+        <f>+M32</f>
+        <v>469</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>492</v>
+      </c>
+      <c r="R32" s="3">
+        <v>485</v>
+      </c>
+      <c r="S32" s="3">
+        <f>AVERAGE(G32:J32)</f>
+        <v>481.25</v>
+      </c>
+      <c r="T32" s="3">
+        <f>AVERAGE(K32:N32)</f>
+        <v>471.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" ref="J34" si="14">J19/F19-1</f>
+        <f t="shared" ref="J34" si="25">J19/F19-1</f>
         <v>0.20035046728971961</v>
       </c>
       <c r="K34" s="9">
@@ -1996,17 +2453,33 @@
         <v>9.1421254801536511E-2</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" ref="L34:M34" si="15">L19/H19-1</f>
+        <f t="shared" ref="L34:N34" si="26">L19/H19-1</f>
         <v>0.14367666232073018</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0.12655654383735704</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="9">
+        <f t="shared" si="26"/>
+        <v>0.10000000000000031</v>
+      </c>
+      <c r="R34" s="13">
+        <f t="shared" ref="R34:T34" si="27">+R19/Q19-1</f>
+        <v>0.151911198639334</v>
+      </c>
+      <c r="S34" s="13">
+        <f t="shared" si="27"/>
+        <v>0.22668635374572577</v>
+      </c>
+      <c r="T34" s="13">
+        <f>+T19/S19-1</f>
+        <v>0.11510928096293949</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2015,9 +2488,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9">
@@ -2033,12 +2506,12 @@
         <v>0.11718131433095813</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" ref="J37" si="16">J21/J19</f>
+        <f t="shared" ref="J37" si="28">J21/J19</f>
         <v>0.87664233576642336</v>
       </c>
       <c r="K37" s="9">
@@ -2046,274 +2519,414 @@
         <v>0.87986860628812769</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" ref="L37:M37" si="17">L21/L19</f>
+        <f t="shared" ref="L37:N37" si="29">L21/L19</f>
         <v>0.87710898312813501</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.87683284457478006</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5">
-        <f>+K40-K52</f>
-        <v>576</v>
-      </c>
-      <c r="L39" s="5">
-        <f t="shared" ref="L39:M39" si="18">+L40-L52</f>
-        <v>1173</v>
-      </c>
-      <c r="M39" s="5">
-        <f t="shared" si="18"/>
-        <v>1637</v>
-      </c>
-      <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N37" s="9">
+        <f t="shared" si="29"/>
+        <v>0.88</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" ref="Q37:T37" si="30">Q21/Q19</f>
+        <v>0.85023722137677915</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="30"/>
+        <v>0.86617967050046629</v>
+      </c>
+      <c r="S37" s="9">
+        <f t="shared" si="30"/>
+        <v>0.88184985745961353</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" si="30"/>
+        <v>0.87845017611635035</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" s="9">
+        <f>+J29/J28</f>
+        <v>0.15532055518836749</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" ref="K38:N38" si="31">+K29/K28</f>
+        <v>0.1737766624843162</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="31"/>
+        <v>0.20363164721141375</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="31"/>
+        <v>0.2134756504336224</v>
+      </c>
+      <c r="N38" s="9">
+        <f t="shared" si="31"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" ref="Q38:T38" si="32">+Q29/Q28</f>
+        <v>7.7297626293365798E-2</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="32"/>
+        <v>-0.25309362596310997</v>
+      </c>
+      <c r="S38" s="9">
+        <f t="shared" si="32"/>
+        <v>0.15055413469735721</v>
+      </c>
+      <c r="T38" s="9">
+        <f t="shared" si="32"/>
+        <v>0.19750793566735933</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="G40" s="5">
+        <f t="shared" ref="G40" si="33">+G41-G53</f>
+        <v>844</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" ref="H40:I40" si="34">+H41-H53</f>
+        <v>1648</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="34"/>
+        <v>2042</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" ref="J40" si="35">+J41-J53</f>
+        <v>1675</v>
+      </c>
       <c r="K40" s="5">
-        <f>2739+1962</f>
-        <v>4701</v>
+        <f>+K41-K53</f>
+        <v>576</v>
       </c>
       <c r="L40" s="5">
-        <f>3365+1934</f>
-        <v>5299</v>
+        <f t="shared" ref="L40:M40" si="36">+L41-L53</f>
+        <v>1173</v>
       </c>
       <c r="M40" s="5">
-        <f>3870+1894</f>
-        <v>5764</v>
+        <f t="shared" si="36"/>
+        <v>1637</v>
       </c>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="G41" s="5">
+        <f>3452+1511</f>
+        <v>4963</v>
+      </c>
+      <c r="H41" s="5">
+        <f>4250+1518</f>
+        <v>5768</v>
+      </c>
+      <c r="I41" s="5">
+        <f>4623+1541</f>
+        <v>6164</v>
+      </c>
+      <c r="J41" s="5">
+        <f>3844+1954</f>
+        <v>5798</v>
+      </c>
       <c r="K41" s="5">
-        <v>1685</v>
+        <f>2739+1962</f>
+        <v>4701</v>
       </c>
       <c r="L41" s="5">
-        <v>1588</v>
+        <f>3365+1934</f>
+        <v>5299</v>
       </c>
       <c r="M41" s="5">
-        <v>1723</v>
+        <f>3870+1894</f>
+        <v>5764</v>
       </c>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="G42" s="5">
+        <v>1520</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1477</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1545</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1878</v>
+      </c>
       <c r="K42" s="5">
-        <v>1090</v>
+        <v>1685</v>
       </c>
       <c r="L42" s="5">
-        <v>1021</v>
+        <v>1588</v>
       </c>
       <c r="M42" s="5">
-        <v>1002</v>
+        <v>1723</v>
       </c>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="G43" s="5">
+        <v>901</v>
+      </c>
+      <c r="H43" s="5">
+        <v>833</v>
+      </c>
+      <c r="I43" s="5">
+        <v>910</v>
+      </c>
+      <c r="J43" s="5">
+        <v>993</v>
+      </c>
       <c r="K43" s="5">
-        <v>1703</v>
+        <v>1090</v>
       </c>
       <c r="L43" s="5">
-        <v>1790</v>
+        <v>1021</v>
       </c>
       <c r="M43" s="5">
-        <v>1858</v>
+        <v>1002</v>
       </c>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="G44" s="5">
+        <v>1530</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1573</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1629</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1673</v>
+      </c>
       <c r="K44" s="5">
-        <v>435</v>
+        <v>1703</v>
       </c>
       <c r="L44" s="5">
-        <v>430</v>
+        <v>1790</v>
       </c>
       <c r="M44" s="5">
-        <v>414</v>
+        <v>1858</v>
       </c>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="G45" s="5">
+        <v>477</v>
+      </c>
+      <c r="H45" s="5">
+        <v>458</v>
+      </c>
+      <c r="I45" s="5">
+        <v>452</v>
+      </c>
+      <c r="J45" s="5">
+        <v>443</v>
+      </c>
       <c r="K45" s="5">
-        <f>12795+1743</f>
-        <v>14538</v>
+        <v>435</v>
       </c>
       <c r="L45" s="5">
-        <f>12801+1650</f>
-        <v>14451</v>
+        <v>430</v>
       </c>
       <c r="M45" s="5">
-        <f>12756+1548</f>
-        <v>14304</v>
+        <v>414</v>
       </c>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="G46" s="5">
+        <f>11845+1729</f>
+        <v>13574</v>
+      </c>
+      <c r="H46" s="5">
+        <f>11859+1641</f>
+        <v>13500</v>
+      </c>
+      <c r="I46" s="5">
+        <f>11838+1557</f>
+        <v>13395</v>
+      </c>
+      <c r="J46" s="5">
+        <f>12668+1820</f>
+        <v>14488</v>
+      </c>
       <c r="K46" s="5">
-        <v>950</v>
+        <f>12795+1743</f>
+        <v>14538</v>
       </c>
       <c r="L46" s="5">
-        <v>882</v>
+        <f>12801+1650</f>
+        <v>14451</v>
       </c>
       <c r="M46" s="5">
-        <v>799</v>
+        <f>12756+1548</f>
+        <v>14304</v>
       </c>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="G47" s="5">
+        <v>1262</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1168</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1190</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1085</v>
+      </c>
       <c r="K47" s="5">
-        <v>874</v>
+        <v>950</v>
       </c>
       <c r="L47" s="5">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="M47" s="5">
-        <v>880</v>
+        <v>799</v>
       </c>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="G48" s="5">
+        <v>758</v>
+      </c>
+      <c r="H48" s="5">
+        <v>805</v>
+      </c>
+      <c r="I48" s="5">
+        <v>859</v>
+      </c>
+      <c r="J48" s="5">
+        <v>883</v>
+      </c>
       <c r="K48" s="5">
-        <f>SUM(K40:K47)</f>
-        <v>25976</v>
+        <v>874</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" ref="L48:M48" si="19">SUM(L40:L47)</f>
-        <v>26326</v>
+        <v>865</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="19"/>
-        <v>26744</v>
+        <v>880</v>
       </c>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="G49" s="5">
+        <f t="shared" ref="G49" si="37">SUM(G41:G48)</f>
+        <v>24985</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" ref="H49" si="38">SUM(H41:H48)</f>
+        <v>25582</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" ref="I49" si="39">SUM(I41:I48)</f>
+        <v>26144</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" ref="J49" si="40">SUM(J41:J48)</f>
+        <v>27241</v>
+      </c>
+      <c r="K49" s="5">
+        <f>SUM(K41:K48)</f>
+        <v>25976</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" ref="L49:M49" si="41">SUM(L41:L48)</f>
+        <v>26326</v>
+      </c>
+      <c r="M49" s="5">
+        <f t="shared" si="41"/>
+        <v>26744</v>
+      </c>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="50" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2322,304 +2935,416 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5">
-        <v>295</v>
-      </c>
-      <c r="L50" s="5">
-        <v>366</v>
-      </c>
-      <c r="M50" s="5">
-        <v>316</v>
-      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="G51" s="5">
+        <v>254</v>
+      </c>
+      <c r="H51" s="5">
+        <v>312</v>
+      </c>
+      <c r="I51" s="5">
+        <v>331</v>
+      </c>
+      <c r="J51" s="5">
+        <v>312</v>
+      </c>
       <c r="K51" s="5">
-        <v>1333</v>
+        <v>295</v>
       </c>
       <c r="L51" s="5">
-        <v>1615</v>
+        <v>366</v>
       </c>
       <c r="M51" s="5">
-        <v>1629</v>
+        <v>316</v>
       </c>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="G52" s="5">
+        <v>1243</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1538</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1450</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1736</v>
+      </c>
       <c r="K52" s="5">
-        <f>499+3626</f>
-        <v>4125</v>
+        <v>1333</v>
       </c>
       <c r="L52" s="5">
-        <f>499+3627</f>
-        <v>4126</v>
+        <v>1615</v>
       </c>
       <c r="M52" s="5">
-        <f>500+3627</f>
-        <v>4127</v>
+        <v>1629</v>
       </c>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+      <c r="G53" s="5">
+        <v>4119</v>
+      </c>
+      <c r="H53" s="5">
+        <v>4120</v>
+      </c>
+      <c r="I53" s="5">
+        <v>4122</v>
+      </c>
+      <c r="J53" s="5">
+        <v>4123</v>
+      </c>
       <c r="K53" s="5">
-        <f>4894+125</f>
-        <v>5019</v>
+        <f>499+3626</f>
+        <v>4125</v>
       </c>
       <c r="L53" s="5">
-        <f>4753+123</f>
-        <v>4876</v>
+        <f>499+3627</f>
+        <v>4126</v>
       </c>
       <c r="M53" s="5">
-        <f>4829+114</f>
-        <v>4943</v>
+        <f>500+3627</f>
+        <v>4127</v>
       </c>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
+      <c r="G54" s="5">
+        <f>4134+151</f>
+        <v>4285</v>
+      </c>
+      <c r="H54" s="5">
+        <f>4144+139</f>
+        <v>4283</v>
+      </c>
+      <c r="I54" s="5">
+        <f>4243+142</f>
+        <v>4385</v>
+      </c>
+      <c r="J54" s="5">
+        <f>4733+145</f>
+        <v>4878</v>
+      </c>
       <c r="K54" s="5">
-        <f>83+540+4</f>
-        <v>627</v>
+        <f>4894+125</f>
+        <v>5019</v>
       </c>
       <c r="L54" s="5">
-        <f>62+503+4</f>
-        <v>569</v>
+        <f>4753+123</f>
+        <v>4876</v>
       </c>
       <c r="M54" s="5">
-        <f>76+510</f>
-        <v>586</v>
+        <f>4829+114</f>
+        <v>4943</v>
       </c>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="G55" s="5">
+        <f>81+81+540</f>
+        <v>702</v>
+      </c>
+      <c r="H55" s="5">
+        <f>55+510+80</f>
+        <v>645</v>
+      </c>
+      <c r="I55" s="5">
+        <f>70+533+7</f>
+        <v>610</v>
+      </c>
+      <c r="J55" s="5">
+        <f>534+54+5</f>
+        <v>593</v>
+      </c>
       <c r="K55" s="5">
-        <f>93+447</f>
-        <v>540</v>
+        <f>83+540+4</f>
+        <v>627</v>
       </c>
       <c r="L55" s="5">
-        <f>90+442</f>
-        <v>532</v>
+        <f>62+503+4</f>
+        <v>569</v>
       </c>
       <c r="M55" s="5">
-        <f>88+426</f>
-        <v>514</v>
+        <f>76+510</f>
+        <v>586</v>
       </c>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="G56" s="5">
+        <f>94+494</f>
+        <v>588</v>
+      </c>
+      <c r="H56" s="5">
+        <f>96+477</f>
+        <v>573</v>
+      </c>
+      <c r="I56" s="5">
+        <f>97+466</f>
+        <v>563</v>
+      </c>
+      <c r="J56" s="5">
+        <f>97+453</f>
+        <v>550</v>
+      </c>
       <c r="K56" s="5">
-        <v>262</v>
+        <f>93+447</f>
+        <v>540</v>
       </c>
       <c r="L56" s="5">
-        <v>257</v>
+        <f>90+442</f>
+        <v>532</v>
       </c>
       <c r="M56" s="5">
-        <f>253</f>
-        <v>253</v>
+        <f>88+426</f>
+        <v>514</v>
       </c>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="G57" s="5">
+        <v>248</v>
+      </c>
+      <c r="H57" s="5">
+        <v>259</v>
+      </c>
+      <c r="I57" s="5">
+        <v>269</v>
+      </c>
+      <c r="J57" s="5">
+        <v>252</v>
+      </c>
       <c r="K57" s="5">
-        <v>8750</v>
+        <v>262</v>
       </c>
       <c r="L57" s="5">
-        <v>9102</v>
+        <v>257</v>
       </c>
       <c r="M57" s="5">
-        <v>9548</v>
+        <f>253</f>
+        <v>253</v>
       </c>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="G58" s="5">
+        <v>7617</v>
+      </c>
+      <c r="H58" s="5">
+        <v>7877</v>
+      </c>
+      <c r="I58" s="5">
+        <v>8209</v>
+      </c>
+      <c r="J58" s="5">
+        <v>8428</v>
+      </c>
       <c r="K58" s="5">
-        <v>24961</v>
+        <v>8750</v>
       </c>
       <c r="L58" s="5">
-        <v>26022</v>
+        <v>9102</v>
       </c>
       <c r="M58" s="5">
-        <v>27158</v>
+        <v>9548</v>
       </c>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="G59" s="5">
+        <v>20521</v>
+      </c>
+      <c r="H59" s="5">
+        <v>21538</v>
+      </c>
+      <c r="I59" s="5">
+        <v>22750</v>
+      </c>
+      <c r="J59" s="5">
+        <v>23905</v>
+      </c>
       <c r="K59" s="5">
-        <v>-177</v>
+        <v>24961</v>
       </c>
       <c r="L59" s="5">
-        <v>-195</v>
+        <v>26022</v>
       </c>
       <c r="M59" s="5">
-        <v>-224</v>
+        <v>27158</v>
       </c>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
+      <c r="G60" s="5">
+        <v>-141</v>
+      </c>
+      <c r="H60" s="5">
+        <v>-121</v>
+      </c>
+      <c r="I60" s="5">
+        <v>-131</v>
+      </c>
+      <c r="J60" s="5">
+        <v>-137</v>
+      </c>
       <c r="K60" s="5">
-        <v>-19759</v>
+        <v>-177</v>
       </c>
       <c r="L60" s="5">
-        <v>-20944</v>
+        <v>-195</v>
       </c>
       <c r="M60" s="5">
-        <v>-22109</v>
+        <v>-224</v>
       </c>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="G61" s="5">
+        <v>-14451</v>
+      </c>
+      <c r="H61" s="5">
+        <v>-15442</v>
+      </c>
+      <c r="I61" s="5">
+        <v>-16414</v>
+      </c>
+      <c r="J61" s="5">
+        <v>-17399</v>
+      </c>
       <c r="K61" s="5">
-        <f>SUM(K50:K60)</f>
-        <v>25976</v>
+        <v>-19759</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" ref="L61:M61" si="20">SUM(L50:L60)</f>
-        <v>26326</v>
+        <v>-20944</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="20"/>
-        <v>26741</v>
+        <v>-22109</v>
       </c>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
+      <c r="G62" s="5">
+        <f t="shared" ref="G62" si="42">SUM(G51:G61)</f>
+        <v>24985</v>
+      </c>
+      <c r="H62" s="5">
+        <f t="shared" ref="H62" si="43">SUM(H51:H61)</f>
+        <v>25582</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" ref="I62" si="44">SUM(I51:I61)</f>
+        <v>26144</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" ref="J62" si="45">SUM(J51:J61)</f>
+        <v>27241</v>
+      </c>
+      <c r="K62" s="5">
+        <f>SUM(K51:K61)</f>
+        <v>25976</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" ref="L62:M62" si="46">SUM(L51:L61)</f>
+        <v>26326</v>
+      </c>
+      <c r="M62" s="5">
+        <f t="shared" si="46"/>
+        <v>26741</v>
+      </c>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>54</v>
-      </c>
+    <row r="63" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2628,283 +3353,523 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="5">
-        <f>K30</f>
-        <v>1317</v>
-      </c>
-      <c r="L63" s="5">
-        <f>L30</f>
-        <v>1228</v>
-      </c>
-      <c r="M63" s="5">
-        <f>M30</f>
-        <v>1179</v>
-      </c>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
+      <c r="G64" s="5">
+        <f>G30</f>
+        <v>1297</v>
+      </c>
+      <c r="H64" s="5">
+        <f>H30</f>
+        <v>1152</v>
+      </c>
+      <c r="I64" s="5">
+        <f>I30</f>
+        <v>1255</v>
+      </c>
+      <c r="J64" s="5">
+        <f>J30</f>
+        <v>1278</v>
+      </c>
       <c r="K64" s="5">
-        <v>1266</v>
+        <f>K30</f>
+        <v>1317</v>
       </c>
       <c r="L64" s="5">
-        <f>2444-K64</f>
-        <v>1178</v>
+        <f>L30</f>
+        <v>1228</v>
       </c>
       <c r="M64" s="5">
-        <v>1136</v>
+        <f>M30</f>
+        <v>1179</v>
       </c>
       <c r="N64" s="5"/>
-    </row>
-    <row r="65" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q64" s="5">
+        <f t="shared" ref="Q64:T64" si="47">Q30</f>
+        <v>3032</v>
+      </c>
+      <c r="R64" s="5">
+        <f t="shared" si="47"/>
+        <v>5367</v>
+      </c>
+      <c r="S64" s="5">
+        <f t="shared" si="47"/>
+        <v>4982</v>
+      </c>
+      <c r="T64" s="5">
+        <f t="shared" si="47"/>
+        <v>5152.3039999999992</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
+      <c r="G65" s="5">
+        <v>1261</v>
+      </c>
+      <c r="H65" s="5">
+        <f>2377-G65</f>
+        <v>1116</v>
+      </c>
+      <c r="I65" s="5">
+        <f>3589-H65-G65</f>
+        <v>1212</v>
+      </c>
+      <c r="J65" s="5">
+        <f>+S65-I65-H65-G65</f>
+        <v>1233</v>
+      </c>
       <c r="K65" s="5">
-        <v>213</v>
+        <v>1266</v>
       </c>
       <c r="L65" s="5">
-        <f>425-K65</f>
-        <v>212</v>
+        <f>2444-K65</f>
+        <v>1178</v>
       </c>
       <c r="M65" s="5">
-        <v>216</v>
+        <v>1136</v>
       </c>
       <c r="N65" s="5"/>
-    </row>
-    <row r="66" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>2951</v>
+      </c>
+      <c r="R65" s="3">
+        <v>5260</v>
+      </c>
+      <c r="S65" s="3">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
+      <c r="G66" s="5">
+        <v>196</v>
+      </c>
+      <c r="H66" s="5">
+        <f>390-G66</f>
+        <v>194</v>
+      </c>
+      <c r="I66" s="5">
+        <f>583-H66-G66</f>
+        <v>193</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" ref="J66:J73" si="48">+S66-I66-H66-G66</f>
+        <v>205</v>
+      </c>
       <c r="K66" s="5">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="L66" s="5">
-        <f>674-K66</f>
-        <v>352</v>
+        <f>425-K66</f>
+        <v>212</v>
       </c>
       <c r="M66" s="5">
-        <v>378</v>
+        <v>216</v>
       </c>
       <c r="N66" s="5"/>
-    </row>
-    <row r="67" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>757</v>
+      </c>
+      <c r="R66" s="3">
+        <v>757</v>
+      </c>
+      <c r="S66" s="3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
+      <c r="G67" s="5">
+        <v>260</v>
+      </c>
+      <c r="H67" s="5">
+        <f>520-G67</f>
+        <v>260</v>
+      </c>
+      <c r="I67" s="5">
+        <f>800-H67-G67</f>
+        <v>280</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="48"/>
+        <v>269</v>
+      </c>
       <c r="K67" s="5">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="L67" s="5">
-        <f>42-K67</f>
-        <v>42</v>
+        <f>674-K67</f>
+        <v>352</v>
       </c>
       <c r="M67" s="5">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="N67" s="5"/>
-    </row>
-    <row r="68" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3">
+        <v>788</v>
+      </c>
+      <c r="R67" s="3">
+        <v>909</v>
+      </c>
+      <c r="S67" s="3">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="G68" s="5">
+        <v>19</v>
+      </c>
+      <c r="H68" s="5">
+        <f>33-G68</f>
+        <v>14</v>
+      </c>
+      <c r="I68" s="5">
+        <f>53-H68-G68</f>
+        <v>20</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="48"/>
+        <v>20</v>
+      </c>
       <c r="K68" s="5">
         <v>0</v>
       </c>
       <c r="L68" s="5">
-        <f>197-K68</f>
-        <v>197</v>
+        <f>42-K68</f>
+        <v>42</v>
       </c>
       <c r="M68" s="5">
         <v>0</v>
       </c>
       <c r="N68" s="5"/>
-    </row>
-    <row r="69" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>87</v>
+      </c>
+      <c r="S68" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="G69" s="5">
+        <v>117</v>
+      </c>
+      <c r="H69" s="5">
+        <f>210-G69</f>
+        <v>93</v>
+      </c>
+      <c r="I69" s="5">
+        <f>120-H69-G69</f>
+        <v>-90</v>
+      </c>
+      <c r="J69" s="5">
+        <f t="shared" si="48"/>
+        <v>63</v>
+      </c>
       <c r="K69" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L69" s="5">
-        <f>27-K69</f>
-        <v>10</v>
+        <f>197-K69</f>
+        <v>197</v>
       </c>
       <c r="M69" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N69" s="5"/>
-    </row>
-    <row r="70" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>3</v>
+      </c>
+      <c r="R69" s="3">
+        <v>-1501</v>
+      </c>
+      <c r="S69" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>-7-G70</f>
+        <v>-7</v>
+      </c>
+      <c r="I70" s="5">
+        <f>-11-H70-G70</f>
+        <v>-4</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" si="48"/>
+        <v>7</v>
+      </c>
       <c r="K70" s="5">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="L70" s="5">
-        <f>2-K70</f>
-        <v>-151</v>
+        <f>27-K70</f>
+        <v>10</v>
       </c>
       <c r="M70" s="5">
-        <f>112-L70-K70</f>
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="N70" s="5"/>
-    </row>
-    <row r="71" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>-48</v>
+      </c>
+      <c r="R70" s="3">
+        <v>-11</v>
+      </c>
+      <c r="S70" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
+      <c r="G71" s="5">
+        <v>2</v>
+      </c>
+      <c r="H71" s="5">
+        <f>5-G71</f>
+        <v>3</v>
+      </c>
+      <c r="I71" s="5">
+        <f>3-H71-G71</f>
+        <v>-2</v>
+      </c>
+      <c r="J71" s="5">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
       <c r="K71" s="5">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L71" s="5">
-        <f>0-K71</f>
-        <v>-141</v>
+        <f>2-K71</f>
+        <v>-151</v>
       </c>
       <c r="M71" s="5">
-        <f>67-L71-K71</f>
-        <v>67</v>
+        <f>112-L71-K71</f>
+        <v>110</v>
       </c>
       <c r="N71" s="5"/>
-    </row>
-    <row r="72" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>14</v>
+      </c>
+      <c r="R71" s="3">
+        <v>40</v>
+      </c>
+      <c r="S71" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
+      <c r="G72" s="5">
+        <v>471</v>
+      </c>
+      <c r="H72" s="5">
+        <f>469-G72</f>
+        <v>-2</v>
+      </c>
+      <c r="I72" s="5">
+        <f>571-H72-G72</f>
+        <v>102</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="48"/>
+        <v>482</v>
+      </c>
       <c r="K72" s="5">
-        <v>-343</v>
+        <v>141</v>
       </c>
       <c r="L72" s="5">
-        <f>287-140+60-187-20-2-K72</f>
-        <v>341</v>
+        <f>0-K72</f>
+        <v>-141</v>
       </c>
       <c r="M72" s="5">
-        <f>-211-L72-K72</f>
-        <v>-209</v>
+        <f>67-L72-K72</f>
+        <v>67</v>
       </c>
       <c r="N72" s="5"/>
-    </row>
-    <row r="73" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>497</v>
+      </c>
+      <c r="R72" s="3">
+        <v>258</v>
+      </c>
+      <c r="S72" s="3">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
+      <c r="G73" s="5">
+        <f>-82-242-59-200+29</f>
+        <v>-554</v>
+      </c>
+      <c r="H73" s="5">
+        <f>-39-258-1+87-26-G73</f>
+        <v>317</v>
+      </c>
+      <c r="I73" s="5">
+        <f>-105-423+18-47+13-H73-G73</f>
+        <v>-307</v>
+      </c>
+      <c r="J73" s="5">
+        <f t="shared" si="48"/>
+        <v>-217</v>
+      </c>
       <c r="K73" s="5">
-        <f>SUM(K64:K72)</f>
-        <v>1769</v>
+        <v>-343</v>
       </c>
       <c r="L73" s="5">
-        <f>SUM(L64:L72)</f>
-        <v>2040</v>
+        <f>287-140+60-187-20-2-K73</f>
+        <v>341</v>
       </c>
       <c r="M73" s="5">
-        <f>SUM(M64:M72)</f>
-        <v>1704</v>
+        <f>-211-L73-K73</f>
+        <v>-209</v>
       </c>
       <c r="N73" s="5"/>
-    </row>
-    <row r="74" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <f>-188-551+23+172+4</f>
+        <v>-540</v>
+      </c>
+      <c r="R73" s="3">
+        <f>106-288+96+86-72</f>
+        <v>-72</v>
+      </c>
+      <c r="S73" s="3">
+        <f>-430-475-20+162+2</f>
+        <v>-761</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
+      <c r="G74" s="5">
+        <f>SUM(G65:G73)</f>
+        <v>1772</v>
+      </c>
+      <c r="H74" s="5">
+        <f>SUM(H65:H73)</f>
+        <v>1988</v>
+      </c>
+      <c r="I74" s="5">
+        <f>SUM(I65:I73)</f>
+        <v>1404</v>
+      </c>
+      <c r="J74" s="5">
+        <f>SUM(J65:J73)</f>
+        <v>2066</v>
+      </c>
+      <c r="K74" s="5">
+        <f>SUM(K65:K73)</f>
+        <v>1769</v>
+      </c>
+      <c r="L74" s="5">
+        <f>SUM(L65:L73)</f>
+        <v>2040</v>
+      </c>
+      <c r="M74" s="5">
+        <f>SUM(M65:M73)</f>
+        <v>1704</v>
+      </c>
       <c r="N74" s="5"/>
-    </row>
-    <row r="75" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q74" s="3">
+        <f>SUM(Q65:Q73)</f>
+        <v>4422</v>
+      </c>
+      <c r="R74" s="3">
+        <f t="shared" ref="R74:T74" si="49">SUM(R65:R73)</f>
+        <v>5727</v>
+      </c>
+      <c r="S74" s="3">
+        <f t="shared" si="49"/>
+        <v>7230</v>
+      </c>
+      <c r="T74" s="3">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -2913,103 +3878,200 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="5">
-        <f>-288+208+54</f>
-        <v>-26</v>
-      </c>
-      <c r="L75" s="5">
-        <f>-524+349+159-K75-30</f>
-        <v>-20</v>
-      </c>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
+      <c r="G76" s="5">
+        <f>-289+246+39-25</f>
+        <v>-29</v>
+      </c>
+      <c r="H76" s="5">
+        <f>-639+521+104-27-G76</f>
+        <v>-12</v>
+      </c>
+      <c r="I76" s="5">
+        <f>-881+701+138-H76-G76-37</f>
+        <v>-38</v>
+      </c>
+      <c r="J76" s="5">
+        <f t="shared" ref="J76:J78" si="50">+S76-I76-H76-G76</f>
+        <v>-428</v>
+      </c>
       <c r="K76" s="5">
-        <f>-106-28</f>
-        <v>-134</v>
+        <f>-288+208+54</f>
+        <v>-26</v>
       </c>
       <c r="L76" s="5">
-        <f>-126-K76</f>
-        <v>8</v>
-      </c>
-      <c r="M76" s="5"/>
+        <f>-524+349+159-K76-30</f>
+        <v>-20</v>
+      </c>
+      <c r="M76" s="5">
+        <v>31</v>
+      </c>
       <c r="N76" s="5"/>
-    </row>
-    <row r="77" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <f>-700+700+86-49+3</f>
+        <v>40</v>
+      </c>
+      <c r="R76" s="3">
+        <f>-1071+915+167+9-15</f>
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
+        <f>-1533+877+191-42</f>
+        <v>-507</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="G77" s="5">
+        <v>-1470</v>
+      </c>
+      <c r="H77" s="5">
+        <f>-1470-G77</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="5">
+        <f>-1470-H77-G77</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="5">
+        <f t="shared" si="50"/>
+        <v>-1212</v>
+      </c>
       <c r="K77" s="5">
-        <v>-100</v>
+        <f>-106-28</f>
+        <v>-134</v>
       </c>
       <c r="L77" s="5">
-        <f>-226-K77</f>
-        <v>-126</v>
-      </c>
-      <c r="M77" s="5"/>
+        <f>-126-K77</f>
+        <v>8</v>
+      </c>
+      <c r="M77" s="5">
+        <v>-9</v>
+      </c>
       <c r="N77" s="5"/>
-    </row>
-    <row r="78" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>-101</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>-2682</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="G78" s="5">
+        <v>-59</v>
+      </c>
+      <c r="H78" s="5">
+        <f>-154-G78</f>
+        <v>-95</v>
+      </c>
+      <c r="I78" s="5">
+        <f>-249-H78-G78</f>
+        <v>-95</v>
+      </c>
+      <c r="J78" s="5">
+        <f t="shared" si="50"/>
+        <v>-99</v>
+      </c>
       <c r="K78" s="5">
-        <f>SUM(K75:K77)</f>
-        <v>-260</v>
+        <v>-100</v>
       </c>
       <c r="L78" s="5">
-        <f>SUM(L75:L77)</f>
-        <v>-138</v>
-      </c>
-      <c r="M78" s="5"/>
+        <f>-226-K78</f>
+        <v>-126</v>
+      </c>
+      <c r="M78" s="5">
+        <v>-125</v>
+      </c>
       <c r="N78" s="5"/>
-    </row>
-    <row r="79" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q78" s="3">
+        <v>-395</v>
+      </c>
+      <c r="R78" s="3">
+        <v>-419</v>
+      </c>
+      <c r="S78" s="3">
+        <v>-348</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
+      <c r="G79" s="5">
+        <f>SUM(G76:G78)</f>
+        <v>-1558</v>
+      </c>
+      <c r="H79" s="5">
+        <f t="shared" ref="H79:J79" si="51">SUM(H76:H78)</f>
+        <v>-107</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="51"/>
+        <v>-133</v>
+      </c>
+      <c r="J79" s="5">
+        <f t="shared" si="51"/>
+        <v>-1739</v>
+      </c>
+      <c r="K79" s="5">
+        <f>SUM(K76:K78)</f>
+        <v>-260</v>
+      </c>
+      <c r="L79" s="5">
+        <f>SUM(L76:L78)</f>
+        <v>-138</v>
+      </c>
+      <c r="M79" s="5">
+        <f>SUM(M76:M78)</f>
+        <v>-103</v>
+      </c>
       <c r="N79" s="5"/>
-    </row>
-    <row r="80" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="Q79" s="3">
+        <f>SUM(Q76:Q78)</f>
+        <v>-456</v>
+      </c>
+      <c r="R79" s="3">
+        <f>SUM(R76:R78)</f>
+        <v>-414</v>
+      </c>
+      <c r="S79" s="3">
+        <f t="shared" ref="R79:S79" si="52">SUM(S76:S78)</f>
+        <v>-3537</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3018,117 +4080,376 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="5">
-        <f>-2400+91</f>
-        <v>-2309</v>
-      </c>
-      <c r="L80" s="5">
-        <f>-3600-K80+91</f>
-        <v>-1200</v>
-      </c>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
+      <c r="G81" s="5">
+        <f>-950+87</f>
+        <v>-863</v>
+      </c>
+      <c r="H81" s="5">
+        <f>-1950+87-G81</f>
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="5">
+        <f>-2950+290-H81-G81</f>
+        <v>-797</v>
+      </c>
+      <c r="J81" s="5">
+        <f t="shared" ref="J81:J85" si="53">+S81-I81-H81-G81</f>
+        <v>-999</v>
+      </c>
       <c r="K81" s="5">
-        <v>-266</v>
+        <f>-2400+91</f>
+        <v>-2309</v>
       </c>
       <c r="L81" s="5">
-        <f>-367-K81</f>
-        <v>-101</v>
-      </c>
-      <c r="M81" s="5"/>
+        <f>-3600-K81+91</f>
+        <v>-1200</v>
+      </c>
+      <c r="M81" s="5">
+        <v>-1200</v>
+      </c>
       <c r="N81" s="5"/>
-    </row>
-    <row r="82" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <f>-2750+233</f>
+        <v>-2517</v>
+      </c>
+      <c r="R81" s="3">
+        <f>-3050+270</f>
+        <v>-2780</v>
+      </c>
+      <c r="S81" s="3">
+        <f>-3950+291</f>
+        <v>-3659</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="G82" s="5">
+        <v>-391</v>
+      </c>
+      <c r="H82" s="5">
+        <f>-480-G82</f>
+        <v>-89</v>
+      </c>
+      <c r="I82" s="5">
+        <f>-602-H82-G82</f>
+        <v>-122</v>
+      </c>
+      <c r="J82" s="5">
+        <f t="shared" si="53"/>
+        <v>-117</v>
+      </c>
       <c r="K82" s="5">
-        <v>-29</v>
+        <v>-266</v>
       </c>
       <c r="L82" s="5">
-        <f>22-K82</f>
-        <v>51</v>
-      </c>
-      <c r="M82" s="5"/>
+        <f>-367-K82</f>
+        <v>-101</v>
+      </c>
+      <c r="M82" s="5">
+        <v>103</v>
+      </c>
       <c r="N82" s="5"/>
-    </row>
-    <row r="83" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3">
+        <v>-440</v>
+      </c>
+      <c r="R82" s="3">
+        <v>-681</v>
+      </c>
+      <c r="S82" s="3">
+        <v>-719</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+      <c r="G83" s="5">
+        <v>10</v>
+      </c>
+      <c r="H83" s="5">
+        <f>19-G83</f>
+        <v>9</v>
+      </c>
+      <c r="I83" s="5">
+        <f>39-H83-G83</f>
+        <v>20</v>
+      </c>
+      <c r="J83" s="5">
+        <f t="shared" si="53"/>
+        <v>38</v>
+      </c>
       <c r="K83" s="5">
-        <f>SUM(K80:K82)</f>
-        <v>-2604</v>
+        <v>-29</v>
       </c>
       <c r="L83" s="5">
-        <f>SUM(L80:L82)</f>
-        <v>-1250</v>
-      </c>
-      <c r="M83" s="5"/>
+        <f>22-K83</f>
+        <v>51</v>
+      </c>
+      <c r="M83" s="5">
+        <v>37</v>
+      </c>
       <c r="N83" s="5"/>
-    </row>
-    <row r="84" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>11</v>
+      </c>
+      <c r="R83" s="3">
+        <f>-21+3144-3150</f>
+        <v>-27</v>
+      </c>
+      <c r="S83" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
+      <c r="G84" s="5">
+        <f>SUM(G81:G83)</f>
+        <v>-1244</v>
+      </c>
+      <c r="H84" s="5">
+        <f>SUM(H81:H83)</f>
+        <v>-1080</v>
+      </c>
+      <c r="I84" s="5">
+        <f>SUM(I81:I83)</f>
+        <v>-899</v>
+      </c>
+      <c r="J84" s="5">
+        <f>SUM(J81:J83)</f>
+        <v>-1078</v>
+      </c>
       <c r="K84" s="5">
+        <f>SUM(K81:K83)</f>
+        <v>-2604</v>
+      </c>
+      <c r="L84" s="5">
+        <f>SUM(L81:L83)</f>
+        <v>-1250</v>
+      </c>
+      <c r="M84" s="5">
+        <f>SUM(M81:M83)</f>
+        <v>-1060</v>
+      </c>
+      <c r="N84" s="5"/>
+      <c r="Q84" s="3">
+        <f t="shared" ref="Q84:R84" si="54">SUM(Q81:Q83)</f>
+        <v>-2946</v>
+      </c>
+      <c r="R84" s="3">
+        <f t="shared" si="54"/>
+        <v>-3488</v>
+      </c>
+      <c r="S84" s="3">
+        <f>SUM(S81:S83)</f>
+        <v>-4301</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5">
+        <v>4</v>
+      </c>
+      <c r="H85" s="5">
+        <f>1-G85</f>
+        <v>-3</v>
+      </c>
+      <c r="I85" s="5">
+        <f>2-H85-G85</f>
+        <v>1</v>
+      </c>
+      <c r="J85" s="5">
+        <f t="shared" si="53"/>
+        <v>-28</v>
+      </c>
+      <c r="K85" s="5">
         <v>-10</v>
       </c>
-      <c r="L84" s="5">
-        <f>-36-K84</f>
+      <c r="L85" s="5">
+        <f>-36-K85</f>
         <v>-26</v>
       </c>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B85" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K85" s="5">
-        <f>K84+K83+K78+K73</f>
+      <c r="M85" s="5">
+        <v>-36</v>
+      </c>
+      <c r="N85" s="5"/>
+      <c r="Q85" s="3">
+        <v>-13</v>
+      </c>
+      <c r="R85" s="3">
+        <v>3</v>
+      </c>
+      <c r="S85" s="3">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="5">
+        <f>G85+G84+G79+G74</f>
+        <v>-1026</v>
+      </c>
+      <c r="H86" s="5">
+        <f>H85+H84+H79+H74</f>
+        <v>798</v>
+      </c>
+      <c r="I86" s="5">
+        <f>I85+I84+I79+I74</f>
+        <v>373</v>
+      </c>
+      <c r="J86" s="5">
+        <f>J85+J84+J79+J74</f>
+        <v>-779</v>
+      </c>
+      <c r="K86" s="5">
+        <f>K85+K84+K79+K74</f>
         <v>-1105</v>
       </c>
-      <c r="L85" s="5">
-        <f>L84+L83+L78+L73</f>
+      <c r="L86" s="5">
+        <f>L85+L84+L79+L74</f>
         <v>626</v>
+      </c>
+      <c r="M86" s="5">
+        <f>M85+M84+M79+M74</f>
+        <v>505</v>
+      </c>
+      <c r="Q86" s="5">
+        <f t="shared" ref="Q86:S86" si="55">Q85+Q84+Q79+Q74</f>
+        <v>1007</v>
+      </c>
+      <c r="R86" s="5">
+        <f t="shared" si="55"/>
+        <v>1828</v>
+      </c>
+      <c r="S86" s="5">
+        <f t="shared" si="55"/>
+        <v>-634</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J88" s="5">
+        <f>SUM(G74:J74)</f>
+        <v>7230</v>
+      </c>
+      <c r="K88" s="5">
+        <f>SUM(H74:K74)</f>
+        <v>7227</v>
+      </c>
+      <c r="L88" s="5">
+        <f>SUM(I74:L74)</f>
+        <v>7279</v>
+      </c>
+      <c r="M88" s="5">
+        <f>SUM(J74:M74)</f>
+        <v>7579</v>
+      </c>
+      <c r="Q88" s="3">
+        <f>+Q74</f>
+        <v>4422</v>
+      </c>
+      <c r="R88" s="3">
+        <f>+R74</f>
+        <v>5727</v>
+      </c>
+      <c r="S88" s="3">
+        <f>+S74</f>
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R89" s="13">
+        <f>+R88/Q88-1</f>
+        <v>0.2951153324287652</v>
+      </c>
+      <c r="S89" s="13">
+        <f>+S88/R88-1</f>
+        <v>0.26244106862231531</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J90" s="5">
+        <f>+J88+SUM(G78:J78)</f>
+        <v>6882</v>
+      </c>
+      <c r="K90" s="5">
+        <f t="shared" ref="K90:M90" si="56">+K88+SUM(H78:K78)</f>
+        <v>6838</v>
+      </c>
+      <c r="L90" s="5">
+        <f t="shared" si="56"/>
+        <v>6859</v>
+      </c>
+      <c r="M90" s="5">
+        <f t="shared" si="56"/>
+        <v>7129</v>
+      </c>
+      <c r="Q90" s="3">
+        <f t="shared" ref="Q90:S90" si="57">+Q78+Q74</f>
+        <v>4027</v>
+      </c>
+      <c r="R90" s="3">
+        <f t="shared" si="57"/>
+        <v>5308</v>
+      </c>
+      <c r="S90" s="3">
+        <f>+S78+S74</f>
+        <v>6882</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13">
+        <f t="shared" ref="Q91:R91" si="58">+R90/Q90-1</f>
+        <v>0.31810280605910113</v>
+      </c>
+      <c r="S91" s="13">
+        <f>+S90/R90-1</f>
+        <v>0.29653353428786744</v>
       </c>
     </row>
   </sheetData>

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25A51A-F63F-481C-BA3E-18A7CD6CB281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D30B68-BBAF-42D9-9BEF-2766C9909829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53670" yWindow="375" windowWidth="18150" windowHeight="18405" activeTab="1" xr2:uid="{B3F12390-B803-41F7-A0B1-65A97656B711}"/>
+    <workbookView xWindow="-32640" yWindow="1365" windowWidth="31650" windowHeight="18690" xr2:uid="{B3F12390-B803-41F7-A0B1-65A97656B711}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0F59B2F2-39BF-4D3C-BE26-E50C875D2C9A}</author>
+  </authors>
+  <commentList>
+    <comment ref="V19" authorId="0" shapeId="0" xr:uid="{0F59B2F2-39BF-4D3C-BE26-E50C875D2C9A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424 guidance: 5500-5550</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="130">
   <si>
     <t>Price</t>
   </si>
@@ -92,9 +110,6 @@
     <t>Q322</t>
   </si>
   <si>
-    <t>Q422</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -366,14 +381,78 @@
   </si>
   <si>
     <t>FCF TTM</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>CFO: Dan Durn</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>FQ423</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ323</t>
+  </si>
+  <si>
+    <t>FQ223</t>
+  </si>
+  <si>
+    <t>FQ123</t>
+  </si>
+  <si>
+    <t>FQ422</t>
+  </si>
+  <si>
+    <t>President, Digital Media: David Wadhwani</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Affinity, Midjourney</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -431,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -458,13 +537,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EB1E39D7-9536-429A-8816-5F7F73609F8F}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -480,16 +570,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25045</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30998</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25045</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30998</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -504,7 +594,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8168920" y="0"/>
+          <a:off x="12383732" y="11906"/>
           <a:ext cx="0" cy="16257984"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -530,14 +620,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>16711</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>35296</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>16711</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>35296</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>65484</xdr:rowOff>
     </xdr:to>
@@ -554,8 +644,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11857477" y="0"/>
-          <a:ext cx="0" cy="15335250"/>
+          <a:off x="19726491" y="0"/>
+          <a:ext cx="0" cy="15514569"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -581,10 +671,16 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{C25D63EA-240F-466D-BECF-55A1FBB8F893}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,7 +718,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -728,7 +824,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -870,22 +966,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="V19" dT="2024-09-13T13:27:16.43" personId="{C25D63EA-240F-466D-BECF-55A1FBB8F893}" id="{0F59B2F2-39BF-4D3C-BE26-E50C875D2C9A}">
+    <text>Q424 guidance: 5500-5550</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A6FF0E-5644-4F51-A6BC-5804C047E9B5}">
-  <dimension ref="B2:O14"/>
+  <dimension ref="B3:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" customWidth="1"/>
     <col min="10" max="10" width="5.42578125" customWidth="1"/>
@@ -893,110 +998,119 @@
     <col min="12" max="12" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1">
-        <v>393.84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>472.5</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>17</v>
+      <c r="N3" s="1">
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
       </c>
       <c r="M4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="3">
-        <f>+N2*N3</f>
-        <v>186089.4</v>
+        <v>448</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="3">
-        <v>5299</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>17</v>
+        <f>+N3*N4</f>
+        <v>238336</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="3">
-        <v>4126</v>
+        <v>7515</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" s="3">
-        <f>+N4-N5+N6</f>
-        <v>184916.4</v>
+        <v>5627</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
+        <f>+N5-N6+N7</f>
+        <v>236448</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" t="s">
-        <v>100</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="M10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1006,14 +1120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E241C3-CEF2-4D80-8F27-1C06F4DB1898}">
-  <dimension ref="A1:AB91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E241C3-CEF2-4D80-8F27-1C06F4DB1898}">
+  <dimension ref="A1:EC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AB12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomRight" activeCell="AP35" sqref="AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1022,16 +1136,17 @@
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="4" customWidth="1"/>
-    <col min="7" max="14" width="9" style="4" customWidth="1"/>
-    <col min="18" max="28" width="9.5703125" customWidth="1"/>
+    <col min="7" max="25" width="9" style="4" customWidth="1"/>
+    <col min="29" max="39" width="9.5703125" customWidth="1"/>
+    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1059,55 +1174,98 @@
       <c r="M2" s="12">
         <v>44806</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="R2" s="11">
+      <c r="N2" s="12">
+        <v>44897</v>
+      </c>
+      <c r="O2" s="12">
+        <v>44988</v>
+      </c>
+      <c r="P2" s="12">
+        <v>45079</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>45170</v>
+      </c>
+      <c r="R2" s="12">
+        <v>45261</v>
+      </c>
+      <c r="S2" s="12">
+        <v>45352</v>
+      </c>
+      <c r="T2" s="12">
+        <v>45443</v>
+      </c>
+      <c r="U2" s="12">
+        <v>45534</v>
+      </c>
+      <c r="V2" s="12">
+        <f>+R2+366</f>
+        <v>45627</v>
+      </c>
+      <c r="W2" s="12">
+        <f>+S2+366</f>
+        <v>45718</v>
+      </c>
+      <c r="X2" s="12">
+        <f>+T2+366</f>
+        <v>45809</v>
+      </c>
+      <c r="Y2" s="12">
+        <f>+U2+366</f>
+        <v>45900</v>
+      </c>
+      <c r="Z2" s="12">
+        <f>+V2+366</f>
+        <v>45993</v>
+      </c>
+      <c r="AC2" s="11">
         <f>+F2</f>
         <v>44162</v>
       </c>
-      <c r="S2" s="11">
+      <c r="AD2" s="11">
         <f>+J2</f>
         <v>44533</v>
       </c>
-      <c r="T2" s="11">
-        <f>+S2+365</f>
+      <c r="AE2" s="11">
+        <f>+AD2+365</f>
         <v>44898</v>
       </c>
-      <c r="U2" s="11">
-        <f t="shared" ref="U2:AB2" si="0">+T2+365</f>
+      <c r="AF2" s="11">
+        <f t="shared" ref="AF2:AM2" si="0">+AE2+365</f>
         <v>45263</v>
       </c>
-      <c r="V2" s="11">
+      <c r="AG2" s="11">
         <f t="shared" si="0"/>
         <v>45628</v>
       </c>
-      <c r="W2" s="11">
+      <c r="AH2" s="11">
         <f t="shared" si="0"/>
         <v>45993</v>
       </c>
-      <c r="X2" s="11">
+      <c r="AI2" s="11">
         <f t="shared" si="0"/>
         <v>46358</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="AJ2" s="11">
         <f t="shared" si="0"/>
         <v>46723</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="AK2" s="11">
         <f t="shared" si="0"/>
         <v>47088</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AL2" s="11">
         <f t="shared" si="0"/>
         <v>47453</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AM2" s="11">
         <f t="shared" si="0"/>
         <v>47818</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -1143,48 +1301,84 @@
         <v>17</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>18</v>
+        <v>119</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="R3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AB3" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1211,35 +1405,71 @@
       <c r="M4" s="5">
         <v>14110</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
+      <c r="N4" s="5">
+        <v>15190</v>
+      </c>
+      <c r="O4" s="5">
+        <v>15210</v>
+      </c>
+      <c r="P4" s="5">
+        <v>15220</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>15720</v>
+      </c>
+      <c r="R4" s="5">
+        <v>17220</v>
+      </c>
+      <c r="S4" s="5">
+        <v>17580</v>
+      </c>
+      <c r="T4" s="5">
+        <v>17860</v>
+      </c>
+      <c r="U4" s="5">
+        <v>18140</v>
+      </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5">
+        <f>+J4</f>
+        <v>13990</v>
+      </c>
+      <c r="AE4" s="5">
+        <f>+N4</f>
+        <v>15190</v>
+      </c>
+      <c r="AF4" s="5">
+        <f>+R4</f>
+        <v>17220</v>
+      </c>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="4">
         <v>112</v>
@@ -1253,19 +1483,19 @@
       <c r="L6" s="4">
         <v>91</v>
       </c>
-      <c r="Q6">
+      <c r="AB6">
         <v>669</v>
       </c>
-      <c r="R6">
+      <c r="AC6">
         <v>510</v>
       </c>
-      <c r="S6">
+      <c r="AD6">
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1290,20 +1520,47 @@
       <c r="M7" s="5">
         <v>1120</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="Q7" s="3">
+      <c r="N7" s="5">
+        <v>1150</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1180</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1220</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1230</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1270</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1290</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1330</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1350</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="AB7" s="3">
         <v>2795</v>
       </c>
-      <c r="R7" s="3">
+      <c r="AC7" s="3">
         <v>3125</v>
       </c>
-      <c r="S7" s="3">
+      <c r="AD7" s="3">
         <v>3867</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1328,23 +1585,50 @@
       <c r="M8" s="5">
         <v>3230</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="Q8" s="3">
-        <f>+Q9+Q10</f>
+      <c r="N8" s="5">
+        <v>3330</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3400</v>
+      </c>
+      <c r="P8" s="5">
+        <v>3510</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>3590</v>
+      </c>
+      <c r="R8" s="5">
+        <v>3720</v>
+      </c>
+      <c r="S8" s="5">
+        <v>3820</v>
+      </c>
+      <c r="T8" s="5">
+        <v>3910</v>
+      </c>
+      <c r="U8" s="5">
+        <v>4000</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="AB8" s="3">
+        <f>+AB9+AB10</f>
         <v>7707</v>
       </c>
-      <c r="R8" s="3">
-        <f>+R9+R10</f>
+      <c r="AC8" s="3">
+        <f>+AC9+AC10</f>
         <v>9233</v>
       </c>
-      <c r="S8" s="3">
-        <f>+S9+S10</f>
+      <c r="AD8" s="3">
+        <f>+AD9+AD10</f>
         <v>11520</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1367,20 +1651,47 @@
       <c r="M9" s="5">
         <v>2630</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="Q9" s="3">
+      <c r="N9" s="5">
+        <v>2680</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2760</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2850</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>2910</v>
+      </c>
+      <c r="R9" s="5">
+        <v>3000</v>
+      </c>
+      <c r="S9" s="5">
+        <v>3070</v>
+      </c>
+      <c r="T9" s="5">
+        <v>3130</v>
+      </c>
+      <c r="U9" s="5">
+        <v>3190</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="AB9" s="3">
         <v>6482</v>
       </c>
-      <c r="R9" s="3">
+      <c r="AC9" s="3">
         <v>7736</v>
       </c>
-      <c r="S9" s="3">
+      <c r="AD9" s="3">
         <v>9546</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1403,18 +1714,45 @@
       <c r="M10" s="5">
         <v>607</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="Q10" s="3">
+      <c r="N10" s="5">
+        <v>619</v>
+      </c>
+      <c r="O10" s="5">
+        <v>634</v>
+      </c>
+      <c r="P10" s="5">
+        <v>659</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>685</v>
+      </c>
+      <c r="R10" s="5">
+        <v>721</v>
+      </c>
+      <c r="S10" s="5">
+        <v>750</v>
+      </c>
+      <c r="T10" s="5">
+        <v>782</v>
+      </c>
+      <c r="U10" s="5">
+        <v>807</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="AB10" s="3">
         <v>1225</v>
       </c>
-      <c r="R10" s="3">
+      <c r="AC10" s="3">
         <v>1497</v>
       </c>
-      <c r="S10" s="3">
+      <c r="AD10" s="3">
         <v>1974</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1427,10 +1765,21 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1452,19 +1801,30 @@
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="Q12" s="3">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="AB12" s="3">
         <v>6506</v>
       </c>
-      <c r="R12" s="3">
+      <c r="AC12" s="3">
         <v>7454</v>
       </c>
-      <c r="S12" s="3">
+      <c r="AD12" s="3">
         <v>8996</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1486,19 +1846,30 @@
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="Q13" s="3">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="AB13" s="3">
         <v>2975</v>
       </c>
-      <c r="R13" s="3">
+      <c r="AC13" s="3">
         <v>3400</v>
       </c>
-      <c r="S13" s="3">
+      <c r="AD13" s="3">
         <v>4252</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1520,19 +1891,30 @@
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="Q14" s="3">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="AB14" s="3">
         <v>1690</v>
       </c>
-      <c r="R14" s="3">
+      <c r="AC14" s="3">
         <v>2014</v>
       </c>
-      <c r="S14" s="3">
+      <c r="AD14" s="3">
         <v>2537</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1562,27 +1944,86 @@
         <v>4128</v>
       </c>
       <c r="N16" s="5">
-        <f>+J16*1.1</f>
-        <v>4193.2000000000007</v>
-      </c>
-      <c r="Q16" s="3">
+        <v>4232</v>
+      </c>
+      <c r="O16" s="5">
+        <v>4373</v>
+      </c>
+      <c r="P16" s="5">
+        <v>4517</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>4631</v>
+      </c>
+      <c r="R16" s="5">
+        <v>4763</v>
+      </c>
+      <c r="S16" s="5">
+        <v>4916</v>
+      </c>
+      <c r="T16" s="5">
+        <v>5060</v>
+      </c>
+      <c r="U16" s="5">
+        <v>5180</v>
+      </c>
+      <c r="V16" s="5">
+        <f>+R16*1.1</f>
+        <v>5239.3</v>
+      </c>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="AB16" s="3">
         <v>9634</v>
       </c>
-      <c r="R16" s="3">
+      <c r="AC16" s="3">
         <v>11626</v>
       </c>
-      <c r="S16" s="3">
+      <c r="AD16" s="3">
         <f>SUM(G16:J16)</f>
         <v>14573</v>
       </c>
-      <c r="T16" s="3">
+      <c r="AE16" s="3">
         <f>SUM(K16:N16)</f>
-        <v>16349.2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16388</v>
+      </c>
+      <c r="AF16" s="3">
+        <f>SUM(O16:R16)</f>
+        <v>18284</v>
+      </c>
+      <c r="AG16" s="3">
+        <f>SUM(S16:V16)</f>
+        <v>20395.3</v>
+      </c>
+      <c r="AH16" s="3">
+        <f>+AG16*1.1</f>
+        <v>22434.83</v>
+      </c>
+      <c r="AI16" s="3">
+        <f t="shared" ref="AI16:AM16" si="1">+AH16*1.1</f>
+        <v>24678.313000000006</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="1"/>
+        <v>27146.144300000007</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="1"/>
+        <v>29860.758730000009</v>
+      </c>
+      <c r="AL16" s="3">
+        <f t="shared" si="1"/>
+        <v>32846.83460300001</v>
+      </c>
+      <c r="AM16" s="3">
+        <f t="shared" si="1"/>
+        <v>36131.518063300013</v>
+      </c>
+    </row>
+    <row r="17" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1612,27 +2053,86 @@
         <v>126</v>
       </c>
       <c r="N17" s="5">
-        <f>+J17*1.1</f>
-        <v>140.80000000000001</v>
-      </c>
-      <c r="Q17" s="3">
+        <v>115</v>
+      </c>
+      <c r="O17" s="5">
+        <v>120</v>
+      </c>
+      <c r="P17" s="5">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>96</v>
+      </c>
+      <c r="R17" s="5">
+        <v>114</v>
+      </c>
+      <c r="S17" s="5">
+        <v>119</v>
+      </c>
+      <c r="T17" s="5">
+        <v>104</v>
+      </c>
+      <c r="U17" s="5">
+        <v>82</v>
+      </c>
+      <c r="V17" s="5">
+        <f>+R17*1.1</f>
+        <v>125.4</v>
+      </c>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="AB17" s="3">
         <v>648</v>
       </c>
-      <c r="R17" s="3">
+      <c r="AC17" s="3">
         <v>507</v>
       </c>
-      <c r="S17" s="3">
+      <c r="AD17" s="3">
         <f>SUM(G17:J17)</f>
         <v>555</v>
       </c>
-      <c r="T17" s="3">
+      <c r="AE17" s="3">
         <f>SUM(K17:N17)</f>
-        <v>557.79999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="AF17" s="3">
+        <f>SUM(O17:R17)</f>
+        <v>460</v>
+      </c>
+      <c r="AG17" s="3">
+        <f>SUM(S17:V17)</f>
+        <v>430.4</v>
+      </c>
+      <c r="AH17" s="3">
+        <f t="shared" ref="AH17:AM17" si="2">+AG17*1.1</f>
+        <v>473.44</v>
+      </c>
+      <c r="AI17" s="3">
+        <f t="shared" si="2"/>
+        <v>520.78399999999999</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="2"/>
+        <v>572.86240000000009</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" si="2"/>
+        <v>630.14864000000011</v>
+      </c>
+      <c r="AL17" s="3">
+        <f t="shared" si="2"/>
+        <v>693.16350400000022</v>
+      </c>
+      <c r="AM17" s="3">
+        <f t="shared" si="2"/>
+        <v>762.47985440000025</v>
+      </c>
+    </row>
+    <row r="18" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1662,33 +2162,92 @@
         <v>179</v>
       </c>
       <c r="N18" s="5">
-        <f>+J18*1.1</f>
-        <v>187.00000000000003</v>
-      </c>
-      <c r="Q18" s="3">
+        <v>178</v>
+      </c>
+      <c r="O18" s="5">
+        <v>162</v>
+      </c>
+      <c r="P18" s="5">
+        <v>169</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>163</v>
+      </c>
+      <c r="R18" s="5">
+        <v>171</v>
+      </c>
+      <c r="S18" s="5">
+        <v>147</v>
+      </c>
+      <c r="T18" s="5">
+        <v>145</v>
+      </c>
+      <c r="U18" s="5">
+        <v>146</v>
+      </c>
+      <c r="V18" s="5">
+        <f>+R18*1.1</f>
+        <v>188.10000000000002</v>
+      </c>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="AB18" s="3">
         <v>889</v>
       </c>
-      <c r="R18" s="3">
+      <c r="AC18" s="3">
         <v>735</v>
       </c>
-      <c r="S18" s="3">
+      <c r="AD18" s="3">
         <f>SUM(G18:J18)</f>
         <v>657</v>
       </c>
-      <c r="T18" s="3">
+      <c r="AE18" s="3">
         <f>SUM(K18:N18)</f>
-        <v>695</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+      <c r="AF18" s="3">
+        <f>SUM(O18:R18)</f>
+        <v>665</v>
+      </c>
+      <c r="AG18" s="3">
+        <f>SUM(S18:V18)</f>
+        <v>626.1</v>
+      </c>
+      <c r="AH18" s="3">
+        <f t="shared" ref="AH18:AM18" si="3">+AG18*1.1</f>
+        <v>688.71</v>
+      </c>
+      <c r="AI18" s="3">
+        <f t="shared" si="3"/>
+        <v>757.58100000000013</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="3"/>
+        <v>833.33910000000026</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="3"/>
+        <v>916.67301000000032</v>
+      </c>
+      <c r="AL18" s="3">
+        <f t="shared" si="3"/>
+        <v>1008.3403110000004</v>
+      </c>
+      <c r="AM18" s="3">
+        <f t="shared" si="3"/>
+        <v>1109.1743421000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:133" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7">
-        <f t="shared" ref="F19" si="1">SUM(F16:F18)</f>
+        <f t="shared" ref="F19" si="4">SUM(F16:F18)</f>
         <v>3424</v>
       </c>
       <c r="G19" s="7">
@@ -1696,53 +2255,119 @@
         <v>3905</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19:M19" si="2">SUM(H16:H18)</f>
+        <f t="shared" ref="H19:M19" si="5">SUM(H16:H18)</f>
         <v>3835</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3935</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4110</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4262</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4386</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4433</v>
       </c>
       <c r="N19" s="7">
-        <f>SUM(N16:N18)</f>
-        <v>4521.0000000000009</v>
+        <f t="shared" ref="N19:U19" si="6">SUM(N16:N18)</f>
+        <v>4525</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="6"/>
+        <v>4655</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="6"/>
+        <v>4816</v>
       </c>
       <c r="Q19" s="7">
-        <f>SUM(Q16:Q18)</f>
+        <f t="shared" si="6"/>
+        <v>4890</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="6"/>
+        <v>5048</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="6"/>
+        <v>5182</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="6"/>
+        <v>5309</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="6"/>
+        <v>5408</v>
+      </c>
+      <c r="V19" s="7">
+        <v>5525</v>
+      </c>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="AB19" s="7">
+        <f t="shared" ref="AB19:AM19" si="7">SUM(AB16:AB18)</f>
         <v>11171</v>
       </c>
-      <c r="R19" s="7">
-        <f>SUM(R16:R18)</f>
+      <c r="AC19" s="7">
+        <f t="shared" si="7"/>
         <v>12868</v>
       </c>
-      <c r="S19" s="7">
-        <f>SUM(S16:S18)</f>
+      <c r="AD19" s="7">
+        <f t="shared" si="7"/>
         <v>15785</v>
       </c>
-      <c r="T19" s="7">
-        <f>SUM(T16:T18)</f>
-        <v>17602</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE19" s="7">
+        <f t="shared" si="7"/>
+        <v>17606</v>
+      </c>
+      <c r="AF19" s="7">
+        <f t="shared" si="7"/>
+        <v>19409</v>
+      </c>
+      <c r="AG19" s="7">
+        <f t="shared" si="7"/>
+        <v>21451.8</v>
+      </c>
+      <c r="AH19" s="7">
+        <f t="shared" si="7"/>
+        <v>23596.98</v>
+      </c>
+      <c r="AI19" s="7">
+        <f t="shared" si="7"/>
+        <v>25956.678000000007</v>
+      </c>
+      <c r="AJ19" s="7">
+        <f t="shared" si="7"/>
+        <v>28552.34580000001</v>
+      </c>
+      <c r="AK19" s="7">
+        <f t="shared" si="7"/>
+        <v>31407.580380000007</v>
+      </c>
+      <c r="AL19" s="7">
+        <f t="shared" si="7"/>
+        <v>34548.338418000014</v>
+      </c>
+      <c r="AM19" s="7">
+        <f t="shared" si="7"/>
+        <v>38003.172259800012</v>
+      </c>
+    </row>
+    <row r="20" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1773,27 +2398,87 @@
         <v>546</v>
       </c>
       <c r="N20" s="5">
-        <f>+N19-N21</f>
-        <v>542.52</v>
-      </c>
-      <c r="Q20" s="3">
+        <v>568</v>
+      </c>
+      <c r="O20" s="5">
+        <v>568</v>
+      </c>
+      <c r="P20" s="5">
+        <v>572</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>580</v>
+      </c>
+      <c r="R20" s="5">
+        <v>634</v>
+      </c>
+      <c r="S20" s="5">
+        <v>590</v>
+      </c>
+      <c r="T20" s="5">
+        <v>598</v>
+      </c>
+      <c r="U20" s="5">
+        <f>413+6+135</f>
+        <v>554</v>
+      </c>
+      <c r="V20" s="5">
+        <f>+V19-V21</f>
+        <v>552.5</v>
+      </c>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="AB20" s="3">
         <v>1673</v>
       </c>
-      <c r="R20" s="3">
+      <c r="AC20" s="3">
         <v>1722</v>
       </c>
-      <c r="S20" s="3">
+      <c r="AD20" s="3">
         <f>SUM(G20:J20)</f>
         <v>1865</v>
       </c>
-      <c r="T20" s="3">
-        <f>SUM(K20:N20)</f>
-        <v>2139.52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <f>SUM(K20:O20)</f>
+        <v>2733</v>
+      </c>
+      <c r="AF20" s="3">
+        <f>SUM(O20:R20)</f>
+        <v>2354</v>
+      </c>
+      <c r="AG20" s="3">
+        <f>SUM(S20:V20)</f>
+        <v>2294.5</v>
+      </c>
+      <c r="AH20" s="3">
+        <f t="shared" ref="AH20:AL20" si="8">+AH19-AH21</f>
+        <v>2359.6980000000003</v>
+      </c>
+      <c r="AI20" s="3">
+        <f t="shared" si="8"/>
+        <v>2595.6677999999993</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f t="shared" si="8"/>
+        <v>2855.2345800000003</v>
+      </c>
+      <c r="AK20" s="3">
+        <f t="shared" si="8"/>
+        <v>3140.7580379999999</v>
+      </c>
+      <c r="AL20" s="3">
+        <f t="shared" si="8"/>
+        <v>3454.8338418000021</v>
+      </c>
+      <c r="AM20" s="3">
+        <f>+AM19-AM21</f>
+        <v>3800.3172259799976</v>
+      </c>
+    </row>
+    <row r="21" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1807,19 +2492,19 @@
         <v>3458</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" ref="H21:K21" si="3">H19-H20</f>
+        <f t="shared" ref="H21:K21" si="9">H19-H20</f>
         <v>3391</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3468</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3603</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3750</v>
       </c>
       <c r="L21" s="5">
@@ -1827,33 +2512,100 @@
         <v>3847</v>
       </c>
       <c r="M21" s="5">
-        <f>+M19-M20</f>
+        <f t="shared" ref="M21:U21" si="10">+M19-M20</f>
         <v>3887</v>
       </c>
       <c r="N21" s="5">
-        <f>+N19*0.88</f>
-        <v>3978.4800000000009</v>
-      </c>
-      <c r="Q21" s="3">
-        <f>+Q19-Q20</f>
+        <f t="shared" si="10"/>
+        <v>3957</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="10"/>
+        <v>4087</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="10"/>
+        <v>4244</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="10"/>
+        <v>4310</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="10"/>
+        <v>4414</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" si="10"/>
+        <v>4592</v>
+      </c>
+      <c r="T21" s="5">
+        <f t="shared" si="10"/>
+        <v>4711</v>
+      </c>
+      <c r="U21" s="5">
+        <f t="shared" si="10"/>
+        <v>4854</v>
+      </c>
+      <c r="V21" s="5">
+        <f>+V19*0.9</f>
+        <v>4972.5</v>
+      </c>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="AB21" s="3">
+        <f t="shared" ref="AB21:AG21" si="11">+AB19-AB20</f>
         <v>9498</v>
       </c>
-      <c r="R21" s="3">
-        <f>+R19-R20</f>
+      <c r="AC21" s="3">
+        <f t="shared" si="11"/>
         <v>11146</v>
       </c>
-      <c r="S21" s="3">
-        <f>+S19-S20</f>
+      <c r="AD21" s="3">
+        <f t="shared" si="11"/>
         <v>13920</v>
       </c>
-      <c r="T21" s="3">
-        <f>+T19-T20</f>
-        <v>15462.48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <f t="shared" si="11"/>
+        <v>14873</v>
+      </c>
+      <c r="AF21" s="3">
+        <f t="shared" si="11"/>
+        <v>17055</v>
+      </c>
+      <c r="AG21" s="3">
+        <f t="shared" si="11"/>
+        <v>19157.3</v>
+      </c>
+      <c r="AH21" s="3">
+        <f t="shared" ref="AH21:AM21" si="12">+AH19*0.9</f>
+        <v>21237.281999999999</v>
+      </c>
+      <c r="AI21" s="3">
+        <f t="shared" si="12"/>
+        <v>23361.010200000008</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f t="shared" si="12"/>
+        <v>25697.11122000001</v>
+      </c>
+      <c r="AK21" s="3">
+        <f t="shared" si="12"/>
+        <v>28266.822342000007</v>
+      </c>
+      <c r="AL21" s="3">
+        <f t="shared" si="12"/>
+        <v>31093.504576200012</v>
+      </c>
+      <c r="AM21" s="3">
+        <f t="shared" si="12"/>
+        <v>34202.855033820015</v>
+      </c>
+    </row>
+    <row r="22" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1883,27 +2635,86 @@
         <v>775</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" ref="N22:N23" si="4">+J22*1.05</f>
-        <v>689.85</v>
-      </c>
-      <c r="Q22" s="3">
+        <v>773</v>
+      </c>
+      <c r="O22" s="5">
+        <v>827</v>
+      </c>
+      <c r="P22" s="5">
+        <v>876</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>881</v>
+      </c>
+      <c r="R22" s="5">
+        <v>889</v>
+      </c>
+      <c r="S22" s="5">
+        <v>939</v>
+      </c>
+      <c r="T22" s="5">
+        <v>984</v>
+      </c>
+      <c r="U22" s="5">
+        <v>1022</v>
+      </c>
+      <c r="V22" s="5">
+        <f>+R22</f>
+        <v>889</v>
+      </c>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="AB22" s="3">
         <v>1930</v>
       </c>
-      <c r="R22" s="3">
+      <c r="AC22" s="3">
         <v>2188</v>
       </c>
-      <c r="S22" s="3">
+      <c r="AD22" s="3">
         <f>SUM(G22:J22)</f>
         <v>2540</v>
       </c>
-      <c r="T22" s="3">
-        <f>SUM(K22:N22)</f>
-        <v>2903.85</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <f>SUM(K22:O22)</f>
+        <v>3814</v>
+      </c>
+      <c r="AF22" s="3">
+        <f>SUM(O22:R22)</f>
+        <v>3473</v>
+      </c>
+      <c r="AG22" s="3">
+        <f>SUM(S22:V22)</f>
+        <v>3834</v>
+      </c>
+      <c r="AH22" s="3">
+        <f>+AG22*1.03</f>
+        <v>3949.02</v>
+      </c>
+      <c r="AI22" s="3">
+        <f t="shared" ref="AI22:AM22" si="13">+AH22*1.03</f>
+        <v>4067.4906000000001</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" si="13"/>
+        <v>4189.5153179999998</v>
+      </c>
+      <c r="AK22" s="3">
+        <f t="shared" si="13"/>
+        <v>4315.2007775399998</v>
+      </c>
+      <c r="AL22" s="3">
+        <f t="shared" si="13"/>
+        <v>4444.6568008661998</v>
+      </c>
+      <c r="AM22" s="3">
+        <f t="shared" si="13"/>
+        <v>4577.9965048921858</v>
+      </c>
+    </row>
+    <row r="23" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1933,27 +2744,85 @@
         <v>1266</v>
       </c>
       <c r="N23" s="5">
-        <f>+J23*1.05</f>
-        <v>1187.55</v>
-      </c>
-      <c r="Q23" s="3">
+        <v>1297</v>
+      </c>
+      <c r="O23" s="5">
+        <v>1301</v>
+      </c>
+      <c r="P23" s="5">
+        <v>1345</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>1337</v>
+      </c>
+      <c r="R23" s="5">
+        <v>1368</v>
+      </c>
+      <c r="S23" s="5">
+        <v>1352</v>
+      </c>
+      <c r="T23" s="5">
+        <v>1445</v>
+      </c>
+      <c r="U23" s="5">
+        <v>1431</v>
+      </c>
+      <c r="V23" s="5">
+        <v>1431</v>
+      </c>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="AB23" s="3">
         <v>3244</v>
       </c>
-      <c r="R23" s="3">
+      <c r="AC23" s="3">
         <v>3591</v>
       </c>
-      <c r="S23" s="3">
+      <c r="AD23" s="3">
         <f>SUM(G23:J23)</f>
         <v>4321</v>
       </c>
-      <c r="T23" s="3">
-        <f>SUM(K23:N23)</f>
-        <v>4858.55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <f>SUM(K23:O23)</f>
+        <v>6269</v>
+      </c>
+      <c r="AF23" s="3">
+        <f>SUM(O23:R23)</f>
+        <v>5351</v>
+      </c>
+      <c r="AG23" s="3">
+        <f>SUM(S23:V23)</f>
+        <v>5659</v>
+      </c>
+      <c r="AH23" s="3">
+        <f>+AG23*1.03</f>
+        <v>5828.77</v>
+      </c>
+      <c r="AI23" s="3">
+        <f t="shared" ref="AI23:AM23" si="14">+AH23*1.03</f>
+        <v>6003.6331000000009</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="14"/>
+        <v>6183.7420930000008</v>
+      </c>
+      <c r="AK23" s="3">
+        <f t="shared" si="14"/>
+        <v>6369.2543557900008</v>
+      </c>
+      <c r="AL23" s="3">
+        <f t="shared" si="14"/>
+        <v>6560.3319864637006</v>
+      </c>
+      <c r="AM23" s="3">
+        <f t="shared" si="14"/>
+        <v>6757.1419460576117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1983,49 +2852,107 @@
         <v>319</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" ref="N24" si="5">+J24*1.05</f>
-        <v>287.7</v>
-      </c>
-      <c r="Q24" s="3">
+        <v>340</v>
+      </c>
+      <c r="O24" s="5">
+        <v>331</v>
+      </c>
+      <c r="P24" s="5">
+        <v>357</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>353</v>
+      </c>
+      <c r="R24" s="5">
+        <v>372</v>
+      </c>
+      <c r="S24" s="5">
+        <v>352</v>
+      </c>
+      <c r="T24" s="5">
+        <v>355</v>
+      </c>
+      <c r="U24" s="5">
+        <v>366</v>
+      </c>
+      <c r="V24" s="5">
+        <v>366</v>
+      </c>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="AB24" s="3">
         <v>881</v>
       </c>
-      <c r="R24" s="3">
+      <c r="AC24" s="3">
         <v>968</v>
       </c>
-      <c r="S24" s="3">
+      <c r="AD24" s="3">
         <f>SUM(G24:J24)</f>
         <v>1085</v>
       </c>
-      <c r="T24" s="3">
-        <f>SUM(K24:N24)</f>
-        <v>1166.7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <f>SUM(K24:O24)</f>
+        <v>1550</v>
+      </c>
+      <c r="AF24" s="3">
+        <f>SUM(O24:R24)</f>
+        <v>1413</v>
+      </c>
+      <c r="AG24" s="3">
+        <f>SUM(S24:V24)</f>
+        <v>1439</v>
+      </c>
+      <c r="AH24" s="3">
+        <f>+AG24*1.03</f>
+        <v>1482.17</v>
+      </c>
+      <c r="AI24" s="3">
+        <f t="shared" ref="AI24:AM24" si="15">+AH24*1.03</f>
+        <v>1526.6351000000002</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="15"/>
+        <v>1572.4341530000002</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="15"/>
+        <v>1619.6071775900002</v>
+      </c>
+      <c r="AL24" s="3">
+        <f t="shared" si="15"/>
+        <v>1668.1953929177002</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" si="15"/>
+        <v>1718.2412547052313</v>
+      </c>
+    </row>
+    <row r="25" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5">
-        <f t="shared" ref="F25" si="6">SUM(F22:F24)</f>
+        <f t="shared" ref="F25" si="16">SUM(F22:F24)</f>
         <v>1742</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" ref="G25:J25" si="7">SUM(G22:G24)</f>
+        <f t="shared" ref="G25:J25" si="17">SUM(G22:G24)</f>
         <v>1959</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1941</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1984</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2062</v>
       </c>
       <c r="K25" s="5">
@@ -2033,59 +2960,126 @@
         <v>2128</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" ref="L25:M25" si="8">SUM(L22:L24)</f>
+        <f t="shared" ref="L25:M25" si="18">SUM(L22:L24)</f>
         <v>2276</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2360</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" ref="N25" si="9">SUM(N22:N24)</f>
-        <v>2165.1</v>
+        <f t="shared" ref="N25:O25" si="19">SUM(N22:N24)</f>
+        <v>2410</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="19"/>
+        <v>2459</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" ref="P25:V25" si="20">SUM(P22:P24)</f>
+        <v>2578</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" ref="Q25:S25" si="10">SUM(Q22:Q24)</f>
+        <f t="shared" si="20"/>
+        <v>2571</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="20"/>
+        <v>2629</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="20"/>
+        <v>2643</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="20"/>
+        <v>2784</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="20"/>
+        <v>2819</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="20"/>
+        <v>2686</v>
+      </c>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="AB25" s="5">
+        <f t="shared" ref="AB25:AD25" si="21">SUM(AB22:AB24)</f>
         <v>6055</v>
       </c>
-      <c r="R25" s="5">
-        <f t="shared" si="10"/>
+      <c r="AC25" s="5">
+        <f t="shared" si="21"/>
         <v>6747</v>
       </c>
-      <c r="S25" s="5">
-        <f t="shared" si="10"/>
+      <c r="AD25" s="5">
+        <f t="shared" si="21"/>
         <v>7946</v>
       </c>
-      <c r="T25" s="5">
-        <f t="shared" ref="T25" si="11">SUM(T22:T24)</f>
-        <v>8929.1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE25" s="5">
+        <f t="shared" ref="AE25:AG25" si="22">SUM(AE22:AE24)</f>
+        <v>11633</v>
+      </c>
+      <c r="AF25" s="5">
+        <f t="shared" si="22"/>
+        <v>10237</v>
+      </c>
+      <c r="AG25" s="5">
+        <f t="shared" si="22"/>
+        <v>10932</v>
+      </c>
+      <c r="AH25" s="5">
+        <f t="shared" ref="AH25:AM25" si="23">SUM(AH22:AH24)</f>
+        <v>11259.960000000001</v>
+      </c>
+      <c r="AI25" s="5">
+        <f t="shared" si="23"/>
+        <v>11597.7588</v>
+      </c>
+      <c r="AJ25" s="5">
+        <f t="shared" si="23"/>
+        <v>11945.691564000001</v>
+      </c>
+      <c r="AK25" s="5">
+        <f t="shared" si="23"/>
+        <v>12304.062310920001</v>
+      </c>
+      <c r="AL25" s="5">
+        <f t="shared" si="23"/>
+        <v>12673.184180247601</v>
+      </c>
+      <c r="AM25" s="5">
+        <f t="shared" si="23"/>
+        <v>13053.37970565503</v>
+      </c>
+    </row>
+    <row r="26" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5">
-        <f t="shared" ref="F26" si="12">F21-F25</f>
+        <f t="shared" ref="F26" si="24">F21-F25</f>
         <v>1254</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:J26" si="13">G21-G25</f>
+        <f t="shared" ref="G26:J26" si="25">G21-G25</f>
         <v>1499</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1450</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1484</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1541</v>
       </c>
       <c r="K26" s="5">
@@ -2093,37 +3087,104 @@
         <v>1622</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" ref="L26:M26" si="14">L21-L25</f>
+        <f t="shared" ref="L26:M26" si="26">L21-L25</f>
         <v>1571</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1527</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" ref="N26" si="15">N21-N25</f>
-        <v>1813.380000000001</v>
+        <f t="shared" ref="N26:O26" si="27">N21-N25</f>
+        <v>1547</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="27"/>
+        <v>1628</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" ref="P26:V26" si="28">P21-P25</f>
+        <v>1666</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" ref="Q26:S26" si="16">Q21-Q25</f>
+        <f t="shared" si="28"/>
+        <v>1739</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="28"/>
+        <v>1785</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="28"/>
+        <v>1949</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="28"/>
+        <v>1927</v>
+      </c>
+      <c r="U26" s="5">
+        <f t="shared" si="28"/>
+        <v>2035</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="28"/>
+        <v>2286.5</v>
+      </c>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="AB26" s="5">
+        <f t="shared" ref="AB26:AD26" si="29">AB21-AB25</f>
         <v>3443</v>
       </c>
-      <c r="R26" s="5">
-        <f t="shared" si="16"/>
+      <c r="AC26" s="5">
+        <f t="shared" si="29"/>
         <v>4399</v>
       </c>
-      <c r="S26" s="5">
-        <f t="shared" si="16"/>
+      <c r="AD26" s="5">
+        <f t="shared" si="29"/>
         <v>5974</v>
       </c>
-      <c r="T26" s="5">
-        <f t="shared" ref="T26" si="17">T21-T25</f>
-        <v>6533.3799999999992</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AE26" s="5">
+        <f t="shared" ref="AE26:AG26" si="30">AE21-AE25</f>
+        <v>3240</v>
+      </c>
+      <c r="AF26" s="5">
+        <f t="shared" si="30"/>
+        <v>6818</v>
+      </c>
+      <c r="AG26" s="5">
+        <f t="shared" si="30"/>
+        <v>8225.2999999999993</v>
+      </c>
+      <c r="AH26" s="5">
+        <f t="shared" ref="AH26:AM26" si="31">AH21-AH25</f>
+        <v>9977.3219999999983</v>
+      </c>
+      <c r="AI26" s="5">
+        <f t="shared" si="31"/>
+        <v>11763.251400000008</v>
+      </c>
+      <c r="AJ26" s="5">
+        <f t="shared" si="31"/>
+        <v>13751.419656000009</v>
+      </c>
+      <c r="AK26" s="5">
+        <f t="shared" si="31"/>
+        <v>15962.760031080006</v>
+      </c>
+      <c r="AL26" s="5">
+        <f t="shared" si="31"/>
+        <v>18420.320395952411</v>
+      </c>
+      <c r="AM26" s="5">
+        <f t="shared" si="31"/>
+        <v>21149.475328164983</v>
+      </c>
+    </row>
+    <row r="27" spans="2:133" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="4">
         <v>-27</v>
@@ -2151,27 +3212,84 @@
         <v>-28</v>
       </c>
       <c r="N27" s="4">
-        <f>+M27</f>
-        <v>-28</v>
-      </c>
-      <c r="Q27" s="3">
+        <v>12</v>
+      </c>
+      <c r="O27" s="4">
+        <v>12</v>
+      </c>
+      <c r="P27" s="4">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>46</v>
+      </c>
+      <c r="R27" s="4">
+        <v>65</v>
+      </c>
+      <c r="S27" s="4">
+        <v>61</v>
+      </c>
+      <c r="T27" s="4">
+        <v>45</v>
+      </c>
+      <c r="U27" s="4">
+        <f>-51+12+89</f>
+        <v>50</v>
+      </c>
+      <c r="V27" s="4">
+        <f>-51+12+89</f>
+        <v>50</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-157</v>
       </c>
-      <c r="R27" s="3">
+      <c r="AC27" s="3">
         <v>-116</v>
       </c>
-      <c r="S27" s="3">
+      <c r="AD27" s="3">
         <f>SUM(G27:J27)</f>
         <v>-109</v>
       </c>
-      <c r="T27" s="3">
-        <f>SUM(K27:N27)</f>
-        <v>-113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <f>SUM(K27:O27)</f>
+        <v>-61</v>
+      </c>
+      <c r="AF27" s="3">
+        <f>SUM(O27:R27)</f>
+        <v>149</v>
+      </c>
+      <c r="AG27" s="3">
+        <f>SUM(S27:V27)</f>
+        <v>206</v>
+      </c>
+      <c r="AH27" s="3">
+        <f>+AG40*$AP$35</f>
+        <v>109.21124999999999</v>
+      </c>
+      <c r="AI27" s="3">
+        <f t="shared" ref="AI27:AM27" si="32">+AH40*$AP$35</f>
+        <v>351.28804799999995</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" si="32"/>
+        <v>642.03699475200017</v>
+      </c>
+      <c r="AK27" s="3">
+        <f t="shared" si="32"/>
+        <v>987.47995437004852</v>
+      </c>
+      <c r="AL27" s="3">
+        <f t="shared" si="32"/>
+        <v>1394.2857140208498</v>
+      </c>
+      <c r="AM27" s="3">
+        <f t="shared" si="32"/>
+        <v>1869.8362606602079</v>
+      </c>
+    </row>
+    <row r="28" spans="2:133" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="5">
         <f>+F26+F27</f>
@@ -2182,53 +3300,120 @@
         <v>1469</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" ref="H28:N28" si="18">+H26+H27</f>
+        <f t="shared" ref="H28:O28" si="33">+H26+H27</f>
         <v>1422</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1461</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1513</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1594</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1542</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>1499</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="18"/>
-        <v>1785.380000000001</v>
+        <f t="shared" ref="N28" si="34">+N26+N27</f>
+        <v>1559</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="33"/>
+        <v>1640</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" ref="P28:V28" si="35">+P26+P27</f>
+        <v>1692</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" ref="Q28:T28" si="19">+Q26+Q27</f>
+        <f t="shared" si="35"/>
+        <v>1785</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="35"/>
+        <v>1850</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="35"/>
+        <v>2010</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="35"/>
+        <v>1972</v>
+      </c>
+      <c r="U28" s="5">
+        <f t="shared" si="35"/>
+        <v>2085</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="35"/>
+        <v>2336.5</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="AB28" s="5">
+        <f t="shared" ref="AB28:AM28" si="36">+AB26+AB27</f>
         <v>3286</v>
       </c>
-      <c r="R28" s="5">
-        <f t="shared" si="19"/>
+      <c r="AC28" s="5">
+        <f t="shared" si="36"/>
         <v>4283</v>
       </c>
-      <c r="S28" s="5">
-        <f t="shared" si="19"/>
+      <c r="AD28" s="5">
+        <f t="shared" si="36"/>
         <v>5865</v>
       </c>
-      <c r="T28" s="5">
-        <f t="shared" si="19"/>
-        <v>6420.3799999999992</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE28" s="5">
+        <f t="shared" si="36"/>
+        <v>3179</v>
+      </c>
+      <c r="AF28" s="5">
+        <f t="shared" si="36"/>
+        <v>6967</v>
+      </c>
+      <c r="AG28" s="5">
+        <f t="shared" si="36"/>
+        <v>8431.2999999999993</v>
+      </c>
+      <c r="AH28" s="5">
+        <f t="shared" si="36"/>
+        <v>10086.533249999999</v>
+      </c>
+      <c r="AI28" s="5">
+        <f t="shared" si="36"/>
+        <v>12114.539448000009</v>
+      </c>
+      <c r="AJ28" s="5">
+        <f t="shared" si="36"/>
+        <v>14393.456650752008</v>
+      </c>
+      <c r="AK28" s="5">
+        <f t="shared" si="36"/>
+        <v>16950.239985450055</v>
+      </c>
+      <c r="AL28" s="5">
+        <f t="shared" si="36"/>
+        <v>19814.606109973261</v>
+      </c>
+      <c r="AM28" s="5">
+        <f t="shared" si="36"/>
+        <v>23019.311588825192</v>
+      </c>
+    </row>
+    <row r="29" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2258,27 +3443,86 @@
         <v>320</v>
       </c>
       <c r="N29" s="5">
-        <f>+N28*0.2</f>
-        <v>357.07600000000025</v>
-      </c>
-      <c r="Q29" s="3">
+        <v>341</v>
+      </c>
+      <c r="O29" s="5">
+        <v>351</v>
+      </c>
+      <c r="P29" s="5">
+        <v>355</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>340</v>
+      </c>
+      <c r="R29" s="5">
+        <v>325</v>
+      </c>
+      <c r="S29" s="5">
+        <v>348</v>
+      </c>
+      <c r="T29" s="5">
+        <v>357</v>
+      </c>
+      <c r="U29" s="5">
+        <v>358</v>
+      </c>
+      <c r="V29" s="5">
+        <f>+V28*0.25</f>
+        <v>584.125</v>
+      </c>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="AB29" s="3">
         <v>254</v>
       </c>
-      <c r="R29" s="3">
+      <c r="AC29" s="3">
         <v>-1084</v>
       </c>
-      <c r="S29" s="3">
+      <c r="AD29" s="3">
         <f>SUM(G29:J29)</f>
         <v>883</v>
       </c>
-      <c r="T29" s="3">
-        <f>SUM(K29:N29)</f>
-        <v>1268.0760000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <f>SUM(K29:O29)</f>
+        <v>1603</v>
+      </c>
+      <c r="AF29" s="3">
+        <f>SUM(O29:R29)</f>
+        <v>1371</v>
+      </c>
+      <c r="AG29" s="3">
+        <f>SUM(S29:V29)</f>
+        <v>1647.125</v>
+      </c>
+      <c r="AH29" s="3">
+        <f>+AH28*0.2</f>
+        <v>2017.3066499999998</v>
+      </c>
+      <c r="AI29" s="3">
+        <f t="shared" ref="AI29:AM29" si="37">+AI28*0.2</f>
+        <v>2422.9078896000019</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f t="shared" si="37"/>
+        <v>2878.6913301504019</v>
+      </c>
+      <c r="AK29" s="3">
+        <f t="shared" si="37"/>
+        <v>3390.047997090011</v>
+      </c>
+      <c r="AL29" s="3">
+        <f t="shared" si="37"/>
+        <v>3962.9212219946526</v>
+      </c>
+      <c r="AM29" s="3">
+        <f t="shared" si="37"/>
+        <v>4603.8623177650388</v>
+      </c>
+    </row>
+    <row r="30" spans="2:133" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="5">
         <f>+F28-F29</f>
@@ -2289,56 +3533,499 @@
         <v>1297</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ref="H30:N30" si="20">+H28-H29</f>
+        <f t="shared" ref="H30:O30" si="38">+H28-H29</f>
         <v>1152</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>1255</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>1278</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>1317</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>1228</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>1179</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="20"/>
-        <v>1428.3040000000008</v>
-      </c>
-      <c r="Q30" s="3">
-        <f t="shared" ref="Q30:R30" si="21">+Q28-Q29</f>
+        <f t="shared" ref="N30" si="39">+N28-N29</f>
+        <v>1218</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="38"/>
+        <v>1289</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" ref="P30:V30" si="40">+P28-P29</f>
+        <v>1337</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="40"/>
+        <v>1445</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="40"/>
+        <v>1525</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="40"/>
+        <v>1662</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="40"/>
+        <v>1615</v>
+      </c>
+      <c r="U30" s="5">
+        <f t="shared" si="40"/>
+        <v>1727</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" si="40"/>
+        <v>1752.375</v>
+      </c>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="AB30" s="3">
+        <f t="shared" ref="AB30:AC30" si="41">+AB28-AB29</f>
         <v>3032</v>
       </c>
-      <c r="R30" s="3">
-        <f t="shared" si="21"/>
+      <c r="AC30" s="3">
+        <f t="shared" si="41"/>
         <v>5367</v>
       </c>
-      <c r="S30" s="3">
-        <f>+S28-S29</f>
+      <c r="AD30" s="3">
+        <f t="shared" ref="AD30:AM30" si="42">+AD28-AD29</f>
         <v>4982</v>
       </c>
-      <c r="T30" s="3">
-        <f>+T28-T29</f>
-        <v>5152.3039999999992</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <f t="shared" si="42"/>
+        <v>1576</v>
+      </c>
+      <c r="AF30" s="3">
+        <f t="shared" si="42"/>
+        <v>5596</v>
+      </c>
+      <c r="AG30" s="3">
+        <f t="shared" si="42"/>
+        <v>6784.1749999999993</v>
+      </c>
+      <c r="AH30" s="3">
+        <f t="shared" si="42"/>
+        <v>8069.2265999999991</v>
+      </c>
+      <c r="AI30" s="3">
+        <f t="shared" si="42"/>
+        <v>9691.6315584000076</v>
+      </c>
+      <c r="AJ30" s="3">
+        <f t="shared" si="42"/>
+        <v>11514.765320601608</v>
+      </c>
+      <c r="AK30" s="3">
+        <f t="shared" si="42"/>
+        <v>13560.191988360044</v>
+      </c>
+      <c r="AL30" s="3">
+        <f t="shared" si="42"/>
+        <v>15851.684887978608</v>
+      </c>
+      <c r="AM30" s="3">
+        <f t="shared" si="42"/>
+        <v>18415.449271060155</v>
+      </c>
+      <c r="AN30" s="3">
+        <f>+AM30*(1+$AP$34)</f>
+        <v>18599.603763770756</v>
+      </c>
+      <c r="AO30" s="3">
+        <f t="shared" ref="AO30:CZ30" si="43">+AN30*(1+$AP$34)</f>
+        <v>18785.599801408465</v>
+      </c>
+      <c r="AP30" s="3">
+        <f t="shared" si="43"/>
+        <v>18973.455799422551</v>
+      </c>
+      <c r="AQ30" s="3">
+        <f t="shared" si="43"/>
+        <v>19163.190357416777</v>
+      </c>
+      <c r="AR30" s="3">
+        <f t="shared" si="43"/>
+        <v>19354.822260990946</v>
+      </c>
+      <c r="AS30" s="3">
+        <f t="shared" si="43"/>
+        <v>19548.370483600855</v>
+      </c>
+      <c r="AT30" s="3">
+        <f t="shared" si="43"/>
+        <v>19743.854188436864</v>
+      </c>
+      <c r="AU30" s="3">
+        <f t="shared" si="43"/>
+        <v>19941.292730321235</v>
+      </c>
+      <c r="AV30" s="3">
+        <f t="shared" si="43"/>
+        <v>20140.705657624447</v>
+      </c>
+      <c r="AW30" s="3">
+        <f t="shared" si="43"/>
+        <v>20342.112714200692</v>
+      </c>
+      <c r="AX30" s="3">
+        <f t="shared" si="43"/>
+        <v>20545.533841342698</v>
+      </c>
+      <c r="AY30" s="3">
+        <f t="shared" si="43"/>
+        <v>20750.989179756125</v>
+      </c>
+      <c r="AZ30" s="3">
+        <f t="shared" si="43"/>
+        <v>20958.499071553688</v>
+      </c>
+      <c r="BA30" s="3">
+        <f t="shared" si="43"/>
+        <v>21168.084062269227</v>
+      </c>
+      <c r="BB30" s="3">
+        <f t="shared" si="43"/>
+        <v>21379.764902891919</v>
+      </c>
+      <c r="BC30" s="3">
+        <f t="shared" si="43"/>
+        <v>21593.562551920837</v>
+      </c>
+      <c r="BD30" s="3">
+        <f t="shared" si="43"/>
+        <v>21809.498177440044</v>
+      </c>
+      <c r="BE30" s="3">
+        <f t="shared" si="43"/>
+        <v>22027.593159214444</v>
+      </c>
+      <c r="BF30" s="3">
+        <f t="shared" si="43"/>
+        <v>22247.869090806587</v>
+      </c>
+      <c r="BG30" s="3">
+        <f t="shared" si="43"/>
+        <v>22470.347781714652</v>
+      </c>
+      <c r="BH30" s="3">
+        <f t="shared" si="43"/>
+        <v>22695.0512595318</v>
+      </c>
+      <c r="BI30" s="3">
+        <f t="shared" si="43"/>
+        <v>22922.001772127118</v>
+      </c>
+      <c r="BJ30" s="3">
+        <f t="shared" si="43"/>
+        <v>23151.22178984839</v>
+      </c>
+      <c r="BK30" s="3">
+        <f t="shared" si="43"/>
+        <v>23382.734007746876</v>
+      </c>
+      <c r="BL30" s="3">
+        <f t="shared" si="43"/>
+        <v>23616.561347824347</v>
+      </c>
+      <c r="BM30" s="3">
+        <f t="shared" si="43"/>
+        <v>23852.726961302589</v>
+      </c>
+      <c r="BN30" s="3">
+        <f t="shared" si="43"/>
+        <v>24091.254230915616</v>
+      </c>
+      <c r="BO30" s="3">
+        <f t="shared" si="43"/>
+        <v>24332.166773224773</v>
+      </c>
+      <c r="BP30" s="3">
+        <f t="shared" si="43"/>
+        <v>24575.488440957022</v>
+      </c>
+      <c r="BQ30" s="3">
+        <f t="shared" si="43"/>
+        <v>24821.243325366591</v>
+      </c>
+      <c r="BR30" s="3">
+        <f t="shared" si="43"/>
+        <v>25069.455758620257</v>
+      </c>
+      <c r="BS30" s="3">
+        <f t="shared" si="43"/>
+        <v>25320.150316206462</v>
+      </c>
+      <c r="BT30" s="3">
+        <f t="shared" si="43"/>
+        <v>25573.351819368527</v>
+      </c>
+      <c r="BU30" s="3">
+        <f t="shared" si="43"/>
+        <v>25829.085337562214</v>
+      </c>
+      <c r="BV30" s="3">
+        <f t="shared" si="43"/>
+        <v>26087.376190937837</v>
+      </c>
+      <c r="BW30" s="3">
+        <f t="shared" si="43"/>
+        <v>26348.249952847214</v>
+      </c>
+      <c r="BX30" s="3">
+        <f t="shared" si="43"/>
+        <v>26611.732452375687</v>
+      </c>
+      <c r="BY30" s="3">
+        <f t="shared" si="43"/>
+        <v>26877.849776899446</v>
+      </c>
+      <c r="BZ30" s="3">
+        <f t="shared" si="43"/>
+        <v>27146.628274668441</v>
+      </c>
+      <c r="CA30" s="3">
+        <f t="shared" si="43"/>
+        <v>27418.094557415126</v>
+      </c>
+      <c r="CB30" s="3">
+        <f t="shared" si="43"/>
+        <v>27692.27550298928</v>
+      </c>
+      <c r="CC30" s="3">
+        <f t="shared" si="43"/>
+        <v>27969.198258019172</v>
+      </c>
+      <c r="CD30" s="3">
+        <f t="shared" si="43"/>
+        <v>28248.890240599365</v>
+      </c>
+      <c r="CE30" s="3">
+        <f t="shared" si="43"/>
+        <v>28531.379143005357</v>
+      </c>
+      <c r="CF30" s="3">
+        <f t="shared" si="43"/>
+        <v>28816.69293443541</v>
+      </c>
+      <c r="CG30" s="3">
+        <f t="shared" si="43"/>
+        <v>29104.859863779766</v>
+      </c>
+      <c r="CH30" s="3">
+        <f t="shared" si="43"/>
+        <v>29395.908462417563</v>
+      </c>
+      <c r="CI30" s="3">
+        <f t="shared" si="43"/>
+        <v>29689.86754704174</v>
+      </c>
+      <c r="CJ30" s="3">
+        <f t="shared" si="43"/>
+        <v>29986.766222512157</v>
+      </c>
+      <c r="CK30" s="3">
+        <f t="shared" si="43"/>
+        <v>30286.633884737279</v>
+      </c>
+      <c r="CL30" s="3">
+        <f t="shared" si="43"/>
+        <v>30589.500223584651</v>
+      </c>
+      <c r="CM30" s="3">
+        <f t="shared" si="43"/>
+        <v>30895.395225820499</v>
+      </c>
+      <c r="CN30" s="3">
+        <f t="shared" si="43"/>
+        <v>31204.349178078704</v>
+      </c>
+      <c r="CO30" s="3">
+        <f t="shared" si="43"/>
+        <v>31516.392669859491</v>
+      </c>
+      <c r="CP30" s="3">
+        <f t="shared" si="43"/>
+        <v>31831.556596558086</v>
+      </c>
+      <c r="CQ30" s="3">
+        <f t="shared" si="43"/>
+        <v>32149.872162523669</v>
+      </c>
+      <c r="CR30" s="3">
+        <f t="shared" si="43"/>
+        <v>32471.370884148906</v>
+      </c>
+      <c r="CS30" s="3">
+        <f t="shared" si="43"/>
+        <v>32796.084592990395</v>
+      </c>
+      <c r="CT30" s="3">
+        <f t="shared" si="43"/>
+        <v>33124.045438920301</v>
+      </c>
+      <c r="CU30" s="3">
+        <f t="shared" si="43"/>
+        <v>33455.285893309505</v>
+      </c>
+      <c r="CV30" s="3">
+        <f t="shared" si="43"/>
+        <v>33789.838752242598</v>
+      </c>
+      <c r="CW30" s="3">
+        <f t="shared" si="43"/>
+        <v>34127.737139765028</v>
+      </c>
+      <c r="CX30" s="3">
+        <f t="shared" si="43"/>
+        <v>34469.014511162677</v>
+      </c>
+      <c r="CY30" s="3">
+        <f t="shared" si="43"/>
+        <v>34813.704656274305</v>
+      </c>
+      <c r="CZ30" s="3">
+        <f t="shared" si="43"/>
+        <v>35161.841702837046</v>
+      </c>
+      <c r="DA30" s="3">
+        <f t="shared" ref="DA30:EC30" si="44">+CZ30*(1+$AP$34)</f>
+        <v>35513.46011986542</v>
+      </c>
+      <c r="DB30" s="3">
+        <f t="shared" si="44"/>
+        <v>35868.594721064073</v>
+      </c>
+      <c r="DC30" s="3">
+        <f t="shared" si="44"/>
+        <v>36227.280668274718</v>
+      </c>
+      <c r="DD30" s="3">
+        <f t="shared" si="44"/>
+        <v>36589.553474957465</v>
+      </c>
+      <c r="DE30" s="3">
+        <f t="shared" si="44"/>
+        <v>36955.449009707037</v>
+      </c>
+      <c r="DF30" s="3">
+        <f t="shared" si="44"/>
+        <v>37325.003499804108</v>
+      </c>
+      <c r="DG30" s="3">
+        <f t="shared" si="44"/>
+        <v>37698.253534802148</v>
+      </c>
+      <c r="DH30" s="3">
+        <f t="shared" si="44"/>
+        <v>38075.236070150168</v>
+      </c>
+      <c r="DI30" s="3">
+        <f t="shared" si="44"/>
+        <v>38455.98843085167</v>
+      </c>
+      <c r="DJ30" s="3">
+        <f t="shared" si="44"/>
+        <v>38840.548315160187</v>
+      </c>
+      <c r="DK30" s="3">
+        <f t="shared" si="44"/>
+        <v>39228.953798311792</v>
+      </c>
+      <c r="DL30" s="3">
+        <f t="shared" si="44"/>
+        <v>39621.243336294909</v>
+      </c>
+      <c r="DM30" s="3">
+        <f t="shared" si="44"/>
+        <v>40017.455769657856</v>
+      </c>
+      <c r="DN30" s="3">
+        <f t="shared" si="44"/>
+        <v>40417.630327354433</v>
+      </c>
+      <c r="DO30" s="3">
+        <f t="shared" si="44"/>
+        <v>40821.80663062798</v>
+      </c>
+      <c r="DP30" s="3">
+        <f t="shared" si="44"/>
+        <v>41230.024696934262</v>
+      </c>
+      <c r="DQ30" s="3">
+        <f t="shared" si="44"/>
+        <v>41642.324943903608</v>
+      </c>
+      <c r="DR30" s="3">
+        <f t="shared" si="44"/>
+        <v>42058.748193342646</v>
+      </c>
+      <c r="DS30" s="3">
+        <f t="shared" si="44"/>
+        <v>42479.335675276074</v>
+      </c>
+      <c r="DT30" s="3">
+        <f t="shared" si="44"/>
+        <v>42904.129032028832</v>
+      </c>
+      <c r="DU30" s="3">
+        <f t="shared" si="44"/>
+        <v>43333.17032234912</v>
+      </c>
+      <c r="DV30" s="3">
+        <f t="shared" si="44"/>
+        <v>43766.502025572612</v>
+      </c>
+      <c r="DW30" s="3">
+        <f t="shared" si="44"/>
+        <v>44204.167045828341</v>
+      </c>
+      <c r="DX30" s="3">
+        <f t="shared" si="44"/>
+        <v>44646.208716286623</v>
+      </c>
+      <c r="DY30" s="3">
+        <f t="shared" si="44"/>
+        <v>45092.670803449488</v>
+      </c>
+      <c r="DZ30" s="3">
+        <f t="shared" si="44"/>
+        <v>45543.597511483982</v>
+      </c>
+      <c r="EA30" s="3">
+        <f t="shared" si="44"/>
+        <v>45999.033486598819</v>
+      </c>
+      <c r="EB30" s="3">
+        <f t="shared" si="44"/>
+        <v>46459.023821464805</v>
+      </c>
+      <c r="EC30" s="3">
+        <f t="shared" si="44"/>
+        <v>46923.61405967945</v>
+      </c>
+    </row>
+    <row r="31" spans="2:133" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" ref="F31" si="22">+F30/F32</f>
+        <f t="shared" ref="F31" si="45">+F30/F32</f>
         <v>2.5351239669421486</v>
       </c>
       <c r="G31" s="8">
@@ -2346,51 +4033,118 @@
         <v>2.6853002070393375</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" ref="H31:N31" si="23">+H30/H32</f>
+        <f t="shared" ref="H31:O31" si="46">+H30/H32</f>
         <v>2.3950103950103951</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>2.6091476091476093</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>2.6625000000000001</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>2.7726315789473683</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>2.5961945031712474</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>2.5138592750533051</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="23"/>
-        <v>3.045424307036249</v>
-      </c>
-      <c r="Q31" s="1">
-        <f t="shared" ref="Q31:R31" si="24">+Q30/Q32</f>
+        <f t="shared" ref="N31" si="47">+N30/N32</f>
+        <v>2.6137339055793993</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="46"/>
+        <v>2.8021739130434784</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" ref="P31:V31" si="48">+P30/P32</f>
+        <v>2.9128540305010895</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" si="48"/>
+        <v>3.1481481481481484</v>
+      </c>
+      <c r="R31" s="8">
+        <f t="shared" si="48"/>
+        <v>3.3224400871459694</v>
+      </c>
+      <c r="S31" s="8">
+        <f t="shared" si="48"/>
+        <v>3.6447368421052633</v>
+      </c>
+      <c r="T31" s="8">
+        <f t="shared" si="48"/>
+        <v>3.5809312638580932</v>
+      </c>
+      <c r="U31" s="8">
+        <f t="shared" si="48"/>
+        <v>3.8549107142857144</v>
+      </c>
+      <c r="V31" s="8">
+        <f t="shared" si="48"/>
+        <v>3.9115513392857144</v>
+      </c>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="AB31" s="1">
+        <f t="shared" ref="AB31:AC31" si="49">+AB30/AB32</f>
         <v>6.1626016260162606</v>
       </c>
-      <c r="R31" s="1">
-        <f t="shared" si="24"/>
+      <c r="AC31" s="1">
+        <f t="shared" si="49"/>
         <v>11.065979381443299</v>
       </c>
-      <c r="S31" s="1">
-        <f>+S30/S32</f>
+      <c r="AD31" s="1">
+        <f>+AD30/AD32</f>
         <v>10.352207792207793</v>
       </c>
-      <c r="T31" s="1">
-        <f>+T30/T32</f>
-        <v>10.927474019088015</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE31" s="1">
+        <f>+AE30/AE32</f>
+        <v>3.3632095603926588</v>
+      </c>
+      <c r="AF31" s="1">
+        <f>+AF30/AF32</f>
+        <v>12.185084376701143</v>
+      </c>
+      <c r="AG31" s="1">
+        <f>+AG30/AG32</f>
+        <v>15.05085967831392</v>
+      </c>
+      <c r="AH31" s="1">
+        <f t="shared" ref="AH31:AM31" si="50">+AH30/AH32</f>
+        <v>17.901778369384356</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="50"/>
+        <v>21.50112381231283</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="50"/>
+        <v>25.545791060680216</v>
+      </c>
+      <c r="AK31" s="1">
+        <f t="shared" si="50"/>
+        <v>30.083620606456005</v>
+      </c>
+      <c r="AL31" s="1">
+        <f t="shared" si="50"/>
+        <v>35.167354160795583</v>
+      </c>
+      <c r="AM31" s="1">
+        <f t="shared" si="50"/>
+        <v>40.855128721153974</v>
+      </c>
+    </row>
+    <row r="32" spans="2:133" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
@@ -2422,64 +4176,203 @@
         <v>469</v>
       </c>
       <c r="N32" s="5">
-        <f>+M32</f>
-        <v>469</v>
-      </c>
-      <c r="Q32" s="3">
+        <v>466</v>
+      </c>
+      <c r="O32" s="5">
+        <v>460</v>
+      </c>
+      <c r="P32" s="5">
+        <v>459</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>459</v>
+      </c>
+      <c r="R32" s="5">
+        <v>459</v>
+      </c>
+      <c r="S32" s="5">
+        <v>456</v>
+      </c>
+      <c r="T32" s="5">
+        <v>451</v>
+      </c>
+      <c r="U32" s="5">
+        <v>448</v>
+      </c>
+      <c r="V32" s="5">
+        <f>+U32</f>
+        <v>448</v>
+      </c>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="AB32" s="3">
         <v>492</v>
       </c>
-      <c r="R32" s="3">
+      <c r="AC32" s="3">
         <v>485</v>
       </c>
-      <c r="S32" s="3">
+      <c r="AD32" s="3">
         <f>AVERAGE(G32:J32)</f>
         <v>481.25</v>
       </c>
-      <c r="T32" s="3">
-        <f>AVERAGE(K32:N32)</f>
-        <v>471.5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="9">
-        <f t="shared" ref="J34" si="25">J19/F19-1</f>
+      <c r="AE32" s="3">
+        <f>AVERAGE(K32:O32)</f>
+        <v>468.6</v>
+      </c>
+      <c r="AF32" s="3">
+        <f>AVERAGE(O32:R32)</f>
+        <v>459.25</v>
+      </c>
+      <c r="AG32" s="3">
+        <f>AVERAGE(S32:V32)</f>
+        <v>450.75</v>
+      </c>
+      <c r="AH32" s="3">
+        <f t="shared" ref="AH32:AM32" si="51">+AG32</f>
+        <v>450.75</v>
+      </c>
+      <c r="AI32" s="3">
+        <f t="shared" si="51"/>
+        <v>450.75</v>
+      </c>
+      <c r="AJ32" s="3">
+        <f t="shared" si="51"/>
+        <v>450.75</v>
+      </c>
+      <c r="AK32" s="3">
+        <f t="shared" si="51"/>
+        <v>450.75</v>
+      </c>
+      <c r="AL32" s="3">
+        <f t="shared" si="51"/>
+        <v>450.75</v>
+      </c>
+      <c r="AM32" s="3">
+        <f t="shared" si="51"/>
+        <v>450.75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15">
+        <f t="shared" ref="J34" si="52">J19/F19-1</f>
         <v>0.20035046728971961</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="15">
         <f>K19/G19-1</f>
         <v>9.1421254801536511E-2</v>
       </c>
-      <c r="L34" s="9">
-        <f t="shared" ref="L34:N34" si="26">L19/H19-1</f>
+      <c r="L34" s="15">
+        <f t="shared" ref="L34:M34" si="53">L19/H19-1</f>
         <v>0.14367666232073018</v>
       </c>
-      <c r="M34" s="9">
-        <f t="shared" si="26"/>
+      <c r="M34" s="15">
+        <f t="shared" si="53"/>
         <v>0.12655654383735704</v>
       </c>
-      <c r="N34" s="9">
-        <f t="shared" si="26"/>
+      <c r="N34" s="15">
+        <f>N19/I19-1</f>
+        <v>0.14993646759847512</v>
+      </c>
+      <c r="O34" s="15">
+        <f>O19/J19-1</f>
+        <v>0.13260340632603396</v>
+      </c>
+      <c r="P34" s="15">
+        <f t="shared" ref="P34" si="54">P19/K19-1</f>
+        <v>0.12998592210229942</v>
+      </c>
+      <c r="Q34" s="15">
+        <f t="shared" ref="Q34" si="55">Q19/L19-1</f>
+        <v>0.11491108071135425</v>
+      </c>
+      <c r="R34" s="15">
+        <f t="shared" ref="R34" si="56">R19/M19-1</f>
+        <v>0.1387322355064291</v>
+      </c>
+      <c r="S34" s="15">
+        <f t="shared" ref="S34" si="57">S19/O19-1</f>
+        <v>0.11321160042964551</v>
+      </c>
+      <c r="T34" s="15">
+        <f>T19/P19-1</f>
+        <v>0.10236710963455153</v>
+      </c>
+      <c r="U34" s="15">
+        <f t="shared" ref="U34:V34" si="58">U19/Q19-1</f>
+        <v>0.10593047034764824</v>
+      </c>
+      <c r="V34" s="15">
+        <f t="shared" si="58"/>
+        <v>9.4492868462757507E-2</v>
+      </c>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="AC34" s="17">
+        <f t="shared" ref="AC34:AD34" si="59">+AC19/AB19-1</f>
+        <v>0.151911198639334</v>
+      </c>
+      <c r="AD34" s="17">
+        <f t="shared" si="59"/>
+        <v>0.22668635374572577</v>
+      </c>
+      <c r="AE34" s="17">
+        <f>+AE19/AD19-1</f>
+        <v>0.11536268609439349</v>
+      </c>
+      <c r="AF34" s="17">
+        <f>+AF19/AE19-1</f>
+        <v>0.10240826990798602</v>
+      </c>
+      <c r="AG34" s="17">
+        <f t="shared" ref="AG34" si="60">+AG19/AF19-1</f>
+        <v>0.10525014168684632</v>
+      </c>
+      <c r="AH34" s="17">
+        <f>+AH19/AG19-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AI34" s="17">
+        <f t="shared" ref="AI34:AM34" si="61">+AI19/AH19-1</f>
         <v>0.10000000000000031</v>
       </c>
-      <c r="R34" s="13">
-        <f t="shared" ref="R34:T34" si="27">+R19/Q19-1</f>
-        <v>0.151911198639334</v>
-      </c>
-      <c r="S34" s="13">
-        <f t="shared" si="27"/>
-        <v>0.22668635374572577</v>
-      </c>
-      <c r="T34" s="13">
-        <f>+T19/S19-1</f>
-        <v>0.11510928096293949</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AJ34" s="17">
+        <f t="shared" si="61"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AK34" s="17">
+        <f t="shared" si="61"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="AL34" s="17">
+        <f t="shared" si="61"/>
+        <v>0.10000000000000031</v>
+      </c>
+      <c r="AM34" s="17">
+        <f t="shared" si="61"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="AO34" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP34" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2487,31 +4380,90 @@
       <c r="M35" s="9">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9">
+      <c r="N35" s="9"/>
+      <c r="AO35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP35" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="2:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15">
         <f>K4/G4-1</f>
         <v>0.19121447028423777</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="15">
         <f>L4/H4-1</f>
         <v>0.13000817661488151</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="15">
         <f>M4/I4-1</f>
         <v>0.11718131433095813</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N36" s="15">
+        <f t="shared" ref="N36:U36" si="62">N4/J4-1</f>
+        <v>8.5775553967119444E-2</v>
+      </c>
+      <c r="O36" s="15">
+        <f t="shared" si="62"/>
+        <v>9.9783080260303691E-2</v>
+      </c>
+      <c r="P36" s="15">
+        <f t="shared" si="62"/>
+        <v>0.10130246020260492</v>
+      </c>
+      <c r="Q36" s="15">
+        <f t="shared" si="62"/>
+        <v>0.11410347271438703</v>
+      </c>
+      <c r="R36" s="15">
+        <f t="shared" si="62"/>
+        <v>0.13364055299539168</v>
+      </c>
+      <c r="S36" s="15">
+        <f t="shared" si="62"/>
+        <v>0.15581854043392496</v>
+      </c>
+      <c r="T36" s="15">
+        <f t="shared" si="62"/>
+        <v>0.17345597897503295</v>
+      </c>
+      <c r="U36" s="15">
+        <f t="shared" si="62"/>
+        <v>0.15394402035623411</v>
+      </c>
+      <c r="V36" s="15">
+        <f>V4/R4-1</f>
+        <v>-1</v>
+      </c>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="AO36" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP36" s="18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" ref="J37" si="28">J21/J19</f>
+        <f t="shared" ref="J37" si="63">J21/J19</f>
         <v>0.87664233576642336</v>
       </c>
       <c r="K37" s="9">
@@ -2519,97 +4471,238 @@
         <v>0.87986860628812769</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" ref="L37:N37" si="29">L21/L19</f>
+        <f t="shared" ref="L37:V37" si="64">L21/L19</f>
         <v>0.87710898312813501</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>0.87683284457478006</v>
       </c>
       <c r="N37" s="9">
-        <f t="shared" si="29"/>
-        <v>0.88</v>
+        <f t="shared" si="64"/>
+        <v>0.87447513812154698</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="64"/>
+        <v>0.87798066595059077</v>
+      </c>
+      <c r="P37" s="9">
+        <f t="shared" si="64"/>
+        <v>0.8812292358803987</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" ref="Q37:T37" si="30">Q21/Q19</f>
+        <f t="shared" si="64"/>
+        <v>0.88139059304703471</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="64"/>
+        <v>0.87440570522979399</v>
+      </c>
+      <c r="S37" s="9">
+        <f t="shared" si="64"/>
+        <v>0.88614434581242763</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" si="64"/>
+        <v>0.88736108495008481</v>
+      </c>
+      <c r="U37" s="9">
+        <f t="shared" si="64"/>
+        <v>0.8975591715976331</v>
+      </c>
+      <c r="V37" s="9">
+        <f t="shared" si="64"/>
+        <v>0.9</v>
+      </c>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="AB37" s="9">
+        <f t="shared" ref="AB37:AG37" si="65">AB21/AB19</f>
         <v>0.85023722137677915</v>
       </c>
-      <c r="R37" s="9">
-        <f t="shared" si="30"/>
+      <c r="AC37" s="9">
+        <f t="shared" si="65"/>
         <v>0.86617967050046629</v>
       </c>
-      <c r="S37" s="9">
-        <f t="shared" si="30"/>
+      <c r="AD37" s="9">
+        <f t="shared" si="65"/>
         <v>0.88184985745961353</v>
       </c>
-      <c r="T37" s="9">
-        <f t="shared" si="30"/>
-        <v>0.87845017611635035</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="AE37" s="9">
+        <f t="shared" si="65"/>
+        <v>0.84476882880836079</v>
+      </c>
+      <c r="AF37" s="9">
+        <f t="shared" si="65"/>
+        <v>0.87871605955999799</v>
+      </c>
+      <c r="AG37" s="9">
+        <f t="shared" si="65"/>
+        <v>0.89303927875516276</v>
+      </c>
+      <c r="AH37" s="9">
+        <f t="shared" ref="AH37:AM37" si="66">AH21/AH19</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI37" s="9">
+        <f t="shared" si="66"/>
+        <v>0.9</v>
+      </c>
+      <c r="AJ37" s="9">
+        <f t="shared" si="66"/>
+        <v>0.9</v>
+      </c>
+      <c r="AK37" s="9">
+        <f t="shared" si="66"/>
+        <v>0.9</v>
+      </c>
+      <c r="AL37" s="9">
+        <f t="shared" si="66"/>
+        <v>0.9</v>
+      </c>
+      <c r="AM37" s="9">
+        <f t="shared" si="66"/>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="AO37" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP37" s="6">
+        <f>NPV(AP36,AH30:EC30)</f>
+        <v>224415.4291531932</v>
+      </c>
+    </row>
+    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J38" s="9">
         <f>+J29/J28</f>
         <v>0.15532055518836749</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" ref="K38:N38" si="31">+K29/K28</f>
+        <f t="shared" ref="K38:V38" si="67">+K29/K28</f>
         <v>0.1737766624843162</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="67"/>
         <v>0.20363164721141375</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="67"/>
         <v>0.2134756504336224</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" si="31"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="67"/>
+        <v>0.2187299550994227</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="67"/>
+        <v>0.21402439024390243</v>
+      </c>
+      <c r="P38" s="9">
+        <f t="shared" si="67"/>
+        <v>0.20981087470449172</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" ref="Q38:T38" si="32">+Q29/Q28</f>
+        <f t="shared" si="67"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="67"/>
+        <v>0.17567567567567569</v>
+      </c>
+      <c r="S38" s="9">
+        <f t="shared" si="67"/>
+        <v>0.17313432835820897</v>
+      </c>
+      <c r="T38" s="9">
+        <f t="shared" si="67"/>
+        <v>0.18103448275862069</v>
+      </c>
+      <c r="U38" s="9">
+        <f t="shared" si="67"/>
+        <v>0.17170263788968826</v>
+      </c>
+      <c r="V38" s="9">
+        <f t="shared" si="67"/>
+        <v>0.25</v>
+      </c>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="AB38" s="9">
+        <f t="shared" ref="AB38:AG38" si="68">+AB29/AB28</f>
         <v>7.7297626293365798E-2</v>
       </c>
-      <c r="R38" s="9">
-        <f t="shared" si="32"/>
+      <c r="AC38" s="9">
+        <f t="shared" si="68"/>
         <v>-0.25309362596310997</v>
       </c>
-      <c r="S38" s="9">
-        <f t="shared" si="32"/>
+      <c r="AD38" s="9">
+        <f t="shared" si="68"/>
         <v>0.15055413469735721</v>
       </c>
-      <c r="T38" s="9">
-        <f t="shared" si="32"/>
-        <v>0.19750793566735933</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE38" s="9">
+        <f t="shared" si="68"/>
+        <v>0.50424661843346963</v>
+      </c>
+      <c r="AF38" s="9">
+        <f t="shared" si="68"/>
+        <v>0.19678484283048658</v>
+      </c>
+      <c r="AG38" s="9">
+        <f t="shared" si="68"/>
+        <v>0.19535836703711174</v>
+      </c>
+      <c r="AH38" s="9">
+        <f t="shared" ref="AH38:AM38" si="69">+AH29/AH28</f>
+        <v>0.2</v>
+      </c>
+      <c r="AI38" s="9">
+        <f t="shared" si="69"/>
+        <v>0.2</v>
+      </c>
+      <c r="AJ38" s="9">
+        <f t="shared" si="69"/>
+        <v>0.2</v>
+      </c>
+      <c r="AK38" s="9">
+        <f t="shared" si="69"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL38" s="9">
+        <f t="shared" si="69"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM38" s="9">
+        <f t="shared" si="69"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5">
-        <f t="shared" ref="G40" si="33">+G41-G53</f>
+        <f t="shared" ref="G40" si="70">+G41-G53</f>
         <v>844</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" ref="H40:I40" si="34">+H41-H53</f>
+        <f t="shared" ref="H40:I40" si="71">+H41-H53</f>
         <v>1648</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="71"/>
         <v>2042</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" ref="J40" si="35">+J41-J53</f>
+        <f t="shared" ref="J40" si="72">+J41-J53</f>
         <v>1675</v>
       </c>
       <c r="K40" s="5">
@@ -2617,16 +4710,61 @@
         <v>576</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" ref="L40:M40" si="36">+L41-L53</f>
+        <f t="shared" ref="L40:M40" si="73">+L41-L53</f>
         <v>1173</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="73"/>
         <v>1637</v>
       </c>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5">
+        <f t="shared" ref="U40" si="74">+U41-U53</f>
+        <v>1888</v>
+      </c>
+      <c r="V40" s="5">
+        <f>+U40+V30</f>
+        <v>3640.375</v>
+      </c>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="AG40" s="3">
+        <f>+V40</f>
+        <v>3640.375</v>
+      </c>
+      <c r="AH40" s="3">
+        <f t="shared" ref="AH40:AM40" si="75">+AG40+AH30</f>
+        <v>11709.601599999998</v>
+      </c>
+      <c r="AI40" s="3">
+        <f t="shared" si="75"/>
+        <v>21401.233158400006</v>
+      </c>
+      <c r="AJ40" s="3">
+        <f t="shared" si="75"/>
+        <v>32915.998479001617</v>
+      </c>
+      <c r="AK40" s="3">
+        <f t="shared" si="75"/>
+        <v>46476.190467361659</v>
+      </c>
+      <c r="AL40" s="3">
+        <f t="shared" si="75"/>
+        <v>62327.875355340264</v>
+      </c>
+      <c r="AM40" s="3">
+        <f t="shared" si="75"/>
+        <v>80743.324626400426</v>
+      </c>
+    </row>
+    <row r="41" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,10 +4801,24 @@
         <v>5764</v>
       </c>
       <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5">
+        <f>7193+322</f>
+        <v>7515</v>
+      </c>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+    </row>
+    <row r="42" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2694,10 +4846,23 @@
         <v>1723</v>
       </c>
       <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5">
+        <v>1802</v>
+      </c>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+    </row>
+    <row r="43" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2725,10 +4890,23 @@
         <v>1002</v>
       </c>
       <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5">
+        <v>1399</v>
+      </c>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+    </row>
+    <row r="44" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2756,10 +4934,23 @@
         <v>1858</v>
       </c>
       <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5">
+        <v>1969</v>
+      </c>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+    </row>
+    <row r="45" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2787,10 +4978,23 @@
         <v>414</v>
       </c>
       <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5">
+        <v>368</v>
+      </c>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+    </row>
+    <row r="46" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2825,10 +5029,24 @@
         <v>14304</v>
       </c>
       <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5">
+        <f>12814+858</f>
+        <v>13672</v>
+      </c>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+    </row>
+    <row r="47" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2856,10 +5074,23 @@
         <v>799</v>
       </c>
       <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5">
+        <v>1548</v>
+      </c>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+    </row>
+    <row r="48" spans="2:42" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2887,29 +5118,42 @@
         <v>880</v>
       </c>
       <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5">
+        <v>1557</v>
+      </c>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+    </row>
+    <row r="49" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5">
-        <f t="shared" ref="G49" si="37">SUM(G41:G48)</f>
+        <f t="shared" ref="G49" si="76">SUM(G41:G48)</f>
         <v>24985</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" ref="H49" si="38">SUM(H41:H48)</f>
+        <f t="shared" ref="H49" si="77">SUM(H41:H48)</f>
         <v>25582</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" ref="I49" si="39">SUM(I41:I48)</f>
+        <f t="shared" ref="I49" si="78">SUM(I41:I48)</f>
         <v>26144</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" ref="J49" si="40">SUM(J41:J48)</f>
+        <f t="shared" ref="J49" si="79">SUM(J41:J48)</f>
         <v>27241</v>
       </c>
       <c r="K49" s="5">
@@ -2917,16 +5161,48 @@
         <v>25976</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" ref="L49:M49" si="41">SUM(L41:L48)</f>
+        <f t="shared" ref="L49:U49" si="80">SUM(L41:L48)</f>
         <v>26326</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>26744</v>
       </c>
       <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="5">
+        <f t="shared" si="80"/>
+        <v>29830</v>
+      </c>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+    </row>
+    <row r="50" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2939,10 +5215,21 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+    </row>
+    <row r="51" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2970,10 +5257,23 @@
         <v>316</v>
       </c>
       <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5">
+        <v>318</v>
+      </c>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+    </row>
+    <row r="52" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3001,8 +5301,21 @@
         <v>1629</v>
       </c>
       <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5">
+        <v>1848</v>
+      </c>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+    </row>
+    <row r="53" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>4</v>
       </c>
@@ -3035,10 +5348,24 @@
         <v>4127</v>
       </c>
       <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5">
+        <f>1499+4128</f>
+        <v>5627</v>
+      </c>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+    </row>
+    <row r="54" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -3073,10 +5400,24 @@
         <v>4943</v>
       </c>
       <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5">
+        <f>5779+127</f>
+        <v>5906</v>
+      </c>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+    </row>
+    <row r="55" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -3111,10 +5452,24 @@
         <v>586</v>
       </c>
       <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5">
+        <f>130+585</f>
+        <v>715</v>
+      </c>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+    </row>
+    <row r="56" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -3149,10 +5504,24 @@
         <v>514</v>
       </c>
       <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5">
+        <f>70+381</f>
+        <v>451</v>
+      </c>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+    </row>
+    <row r="57" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -3181,10 +5550,23 @@
         <v>253</v>
       </c>
       <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5">
+        <v>420</v>
+      </c>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+    </row>
+    <row r="58" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -3212,10 +5594,23 @@
         <v>9548</v>
       </c>
       <c r="N58" s="5"/>
-    </row>
-    <row r="59" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5">
+        <v>13026</v>
+      </c>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+    </row>
+    <row r="59" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -3243,10 +5638,23 @@
         <v>27158</v>
       </c>
       <c r="N59" s="5"/>
-    </row>
-    <row r="60" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5">
+        <v>36911</v>
+      </c>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+    </row>
+    <row r="60" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -3274,10 +5682,23 @@
         <v>-224</v>
       </c>
       <c r="N60" s="5"/>
-    </row>
-    <row r="61" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5">
+        <v>-309</v>
+      </c>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+    </row>
+    <row r="61" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3305,29 +5726,42 @@
         <v>-22109</v>
       </c>
       <c r="N61" s="5"/>
-    </row>
-    <row r="62" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5">
+        <v>-35083</v>
+      </c>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+    </row>
+    <row r="62" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5">
-        <f t="shared" ref="G62" si="42">SUM(G51:G61)</f>
+        <f t="shared" ref="G62" si="81">SUM(G51:G61)</f>
         <v>24985</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" ref="H62" si="43">SUM(H51:H61)</f>
+        <f t="shared" ref="H62" si="82">SUM(H51:H61)</f>
         <v>25582</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" ref="I62" si="44">SUM(I51:I61)</f>
+        <f t="shared" ref="I62" si="83">SUM(I51:I61)</f>
         <v>26144</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" ref="J62" si="45">SUM(J51:J61)</f>
+        <f t="shared" ref="J62" si="84">SUM(J51:J61)</f>
         <v>27241</v>
       </c>
       <c r="K62" s="5">
@@ -3335,16 +5769,30 @@
         <v>25976</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" ref="L62:M62" si="46">SUM(L51:L61)</f>
+        <f t="shared" ref="L62:M62" si="85">SUM(L51:L61)</f>
         <v>26326</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>26741</v>
       </c>
       <c r="N62" s="5"/>
-    </row>
-    <row r="63" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5">
+        <f t="shared" ref="U62" si="86">SUM(U51:U61)</f>
+        <v>29830</v>
+      </c>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+    </row>
+    <row r="63" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3357,64 +5805,107 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+    </row>
+    <row r="64" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5">
-        <f>G30</f>
+        <f t="shared" ref="G64:U64" si="87">G30</f>
         <v>1297</v>
       </c>
       <c r="H64" s="5">
-        <f>H30</f>
+        <f t="shared" si="87"/>
         <v>1152</v>
       </c>
       <c r="I64" s="5">
-        <f>I30</f>
+        <f t="shared" si="87"/>
         <v>1255</v>
       </c>
       <c r="J64" s="5">
-        <f>J30</f>
+        <f t="shared" si="87"/>
         <v>1278</v>
       </c>
       <c r="K64" s="5">
-        <f>K30</f>
+        <f t="shared" si="87"/>
         <v>1317</v>
       </c>
       <c r="L64" s="5">
-        <f>L30</f>
+        <f t="shared" si="87"/>
         <v>1228</v>
       </c>
       <c r="M64" s="5">
-        <f>M30</f>
+        <f t="shared" si="87"/>
         <v>1179</v>
       </c>
       <c r="N64" s="5"/>
+      <c r="O64" s="5">
+        <f t="shared" si="87"/>
+        <v>1289</v>
+      </c>
+      <c r="P64" s="5">
+        <f t="shared" si="87"/>
+        <v>1337</v>
+      </c>
       <c r="Q64" s="5">
-        <f t="shared" ref="Q64:T64" si="47">Q30</f>
+        <f t="shared" si="87"/>
+        <v>1445</v>
+      </c>
+      <c r="R64" s="5">
+        <f t="shared" si="87"/>
+        <v>1525</v>
+      </c>
+      <c r="S64" s="5">
+        <f t="shared" si="87"/>
+        <v>1662</v>
+      </c>
+      <c r="T64" s="5">
+        <f t="shared" si="87"/>
+        <v>1615</v>
+      </c>
+      <c r="U64" s="5">
+        <f t="shared" si="87"/>
+        <v>1727</v>
+      </c>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="AB64" s="5">
+        <f t="shared" ref="AB64:AE64" si="88">AB30</f>
         <v>3032</v>
       </c>
-      <c r="R64" s="5">
-        <f t="shared" si="47"/>
+      <c r="AC64" s="5">
+        <f t="shared" si="88"/>
         <v>5367</v>
       </c>
-      <c r="S64" s="5">
-        <f t="shared" si="47"/>
+      <c r="AD64" s="5">
+        <f t="shared" si="88"/>
         <v>4982</v>
       </c>
-      <c r="T64" s="5">
-        <f t="shared" si="47"/>
-        <v>5152.3039999999992</v>
-      </c>
-    </row>
-    <row r="65" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE64" s="5">
+        <f t="shared" si="88"/>
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3432,7 +5923,7 @@
         <v>1212</v>
       </c>
       <c r="J65" s="5">
-        <f>+S65-I65-H65-G65</f>
+        <f>+AD65-I65-H65-G65</f>
         <v>1233</v>
       </c>
       <c r="K65" s="5">
@@ -3446,19 +5937,32 @@
         <v>1136</v>
       </c>
       <c r="N65" s="5"/>
-      <c r="Q65" s="3">
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5">
+        <v>1684</v>
+      </c>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="AB65" s="3">
         <v>2951</v>
       </c>
-      <c r="R65" s="3">
+      <c r="AC65" s="3">
         <v>5260</v>
       </c>
-      <c r="S65" s="3">
+      <c r="AD65" s="3">
         <v>4822</v>
       </c>
     </row>
-    <row r="66" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3476,7 +5980,7 @@
         <v>193</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" ref="J66:J73" si="48">+S66-I66-H66-G66</f>
+        <f t="shared" ref="J66:J73" si="89">+AD66-I66-H66-G66</f>
         <v>205</v>
       </c>
       <c r="K66" s="5">
@@ -3490,19 +5994,32 @@
         <v>216</v>
       </c>
       <c r="N66" s="5"/>
-      <c r="Q66" s="3">
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5">
+        <v>213</v>
+      </c>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="AB66" s="3">
         <v>757</v>
       </c>
-      <c r="R66" s="3">
+      <c r="AC66" s="3">
         <v>757</v>
       </c>
-      <c r="S66" s="3">
+      <c r="AD66" s="3">
         <v>788</v>
       </c>
     </row>
-    <row r="67" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -3520,7 +6037,7 @@
         <v>280</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="89"/>
         <v>269</v>
       </c>
       <c r="K67" s="5">
@@ -3534,19 +6051,32 @@
         <v>378</v>
       </c>
       <c r="N67" s="5"/>
-      <c r="Q67" s="3">
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5">
+        <v>474</v>
+      </c>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="AB67" s="3">
         <v>788</v>
       </c>
-      <c r="R67" s="3">
+      <c r="AC67" s="3">
         <v>909</v>
       </c>
-      <c r="S67" s="3">
+      <c r="AD67" s="3">
         <v>1069</v>
       </c>
     </row>
-    <row r="68" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3564,7 +6094,7 @@
         <v>20</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="89"/>
         <v>20</v>
       </c>
       <c r="K68" s="5">
@@ -3578,19 +6108,32 @@
         <v>0</v>
       </c>
       <c r="N68" s="5"/>
-      <c r="Q68" s="3">
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5">
         <v>0</v>
       </c>
-      <c r="R68" s="3">
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
         <v>87</v>
       </c>
-      <c r="S68" s="3">
+      <c r="AD68" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3608,7 +6151,7 @@
         <v>-90</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="89"/>
         <v>63</v>
       </c>
       <c r="K69" s="5">
@@ -3622,19 +6165,32 @@
         <v>0</v>
       </c>
       <c r="N69" s="5"/>
-      <c r="Q69" s="3">
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5">
+        <v>0</v>
+      </c>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="AB69" s="3">
         <v>3</v>
       </c>
-      <c r="R69" s="3">
+      <c r="AC69" s="3">
         <v>-1501</v>
       </c>
-      <c r="S69" s="3">
+      <c r="AD69" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3652,7 +6208,7 @@
         <v>-4</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="89"/>
         <v>7</v>
       </c>
       <c r="K70" s="5">
@@ -3666,19 +6222,32 @@
         <v>6</v>
       </c>
       <c r="N70" s="5"/>
-      <c r="Q70" s="3">
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5">
+        <v>-10</v>
+      </c>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="AB70" s="3">
         <v>-48</v>
       </c>
-      <c r="R70" s="3">
+      <c r="AC70" s="3">
         <v>-11</v>
       </c>
-      <c r="S70" s="3">
+      <c r="AD70" s="3">
         <v>-4</v>
       </c>
     </row>
-    <row r="71" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3696,7 +6265,7 @@
         <v>-2</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="89"/>
         <v>4</v>
       </c>
       <c r="K71" s="5">
@@ -3711,19 +6280,32 @@
         <v>110</v>
       </c>
       <c r="N71" s="5"/>
-      <c r="Q71" s="3">
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5">
+        <v>-81</v>
+      </c>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="AB71" s="3">
         <v>14</v>
       </c>
-      <c r="R71" s="3">
+      <c r="AC71" s="3">
         <v>40</v>
       </c>
-      <c r="S71" s="3">
+      <c r="AD71" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3741,7 +6323,7 @@
         <v>102</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="89"/>
         <v>482</v>
       </c>
       <c r="K72" s="5">
@@ -3756,19 +6338,32 @@
         <v>67</v>
       </c>
       <c r="N72" s="5"/>
-      <c r="Q72" s="3">
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5">
+        <v>220</v>
+      </c>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="AB72" s="3">
         <v>497</v>
       </c>
-      <c r="R72" s="3">
+      <c r="AC72" s="3">
         <v>258</v>
       </c>
-      <c r="S72" s="3">
+      <c r="AD72" s="3">
         <v>1053</v>
       </c>
     </row>
-    <row r="73" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -3787,7 +6382,7 @@
         <v>-307</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="89"/>
         <v>-217</v>
       </c>
       <c r="K73" s="5">
@@ -3802,74 +6397,119 @@
         <v>-209</v>
       </c>
       <c r="N73" s="5"/>
-      <c r="Q73" s="3">
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5">
+        <v>-479</v>
+      </c>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="AB73" s="3">
         <f>-188-551+23+172+4</f>
         <v>-540</v>
       </c>
-      <c r="R73" s="3">
+      <c r="AC73" s="3">
         <f>106-288+96+86-72</f>
         <v>-72</v>
       </c>
-      <c r="S73" s="3">
+      <c r="AD73" s="3">
         <f>-430-475-20+162+2</f>
         <v>-761</v>
       </c>
     </row>
-    <row r="74" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5">
-        <f>SUM(G65:G73)</f>
+        <f t="shared" ref="G74:M74" si="90">SUM(G65:G73)</f>
         <v>1772</v>
       </c>
       <c r="H74" s="5">
-        <f>SUM(H65:H73)</f>
+        <f t="shared" si="90"/>
         <v>1988</v>
       </c>
       <c r="I74" s="5">
-        <f>SUM(I65:I73)</f>
+        <f t="shared" si="90"/>
         <v>1404</v>
       </c>
       <c r="J74" s="5">
-        <f>SUM(J65:J73)</f>
+        <f t="shared" si="90"/>
         <v>2066</v>
       </c>
       <c r="K74" s="5">
-        <f>SUM(K65:K73)</f>
+        <f t="shared" si="90"/>
         <v>1769</v>
       </c>
       <c r="L74" s="5">
-        <f>SUM(L65:L73)</f>
+        <f t="shared" si="90"/>
         <v>2040</v>
       </c>
       <c r="M74" s="5">
-        <f>SUM(M65:M73)</f>
+        <f t="shared" si="90"/>
         <v>1704</v>
       </c>
       <c r="N74" s="5"/>
-      <c r="Q74" s="3">
-        <f>SUM(Q65:Q73)</f>
+      <c r="O74" s="5">
+        <f t="shared" ref="O74" si="91">SUM(O65:O73)</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="5">
+        <f t="shared" ref="P74" si="92">SUM(P65:P73)</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="5">
+        <f t="shared" ref="Q74" si="93">SUM(Q65:Q73)</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="5">
+        <f t="shared" ref="R74" si="94">SUM(R65:R73)</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="5">
+        <f t="shared" ref="S74" si="95">SUM(S65:S73)</f>
+        <v>0</v>
+      </c>
+      <c r="T74" s="5">
+        <f t="shared" ref="T74" si="96">SUM(T65:T73)</f>
+        <v>0</v>
+      </c>
+      <c r="U74" s="5">
+        <f t="shared" ref="U74" si="97">SUM(U65:U73)</f>
+        <v>2021</v>
+      </c>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="AB74" s="3">
+        <f>SUM(AB65:AB73)</f>
         <v>4422</v>
       </c>
-      <c r="R74" s="3">
-        <f t="shared" ref="R74:T74" si="49">SUM(R65:R73)</f>
+      <c r="AC74" s="3">
+        <f t="shared" ref="AC74:AE74" si="98">SUM(AC65:AC73)</f>
         <v>5727</v>
       </c>
-      <c r="S74" s="3">
-        <f t="shared" si="49"/>
+      <c r="AD74" s="3">
+        <f t="shared" si="98"/>
         <v>7230</v>
       </c>
-      <c r="T74" s="3">
-        <f t="shared" si="49"/>
+      <c r="AE74" s="3">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3882,10 +6522,21 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
-    </row>
-    <row r="76" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+    </row>
+    <row r="76" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3904,7 +6555,7 @@
         <v>-38</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" ref="J76:J78" si="50">+S76-I76-H76-G76</f>
+        <f t="shared" ref="J76:J78" si="99">+AD76-I76-H76-G76</f>
         <v>-428</v>
       </c>
       <c r="K76" s="5">
@@ -3919,22 +6570,36 @@
         <v>31</v>
       </c>
       <c r="N76" s="5"/>
-      <c r="Q76" s="3">
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5">
+        <f>86-76</f>
+        <v>10</v>
+      </c>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="AB76" s="3">
         <f>-700+700+86-49+3</f>
         <v>40</v>
       </c>
-      <c r="R76" s="3">
+      <c r="AC76" s="3">
         <f>-1071+915+167+9-15</f>
         <v>5</v>
       </c>
-      <c r="S76" s="3">
+      <c r="AD76" s="3">
         <f>-1533+877+191-42</f>
         <v>-507</v>
       </c>
     </row>
-    <row r="77" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -3952,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="99"/>
         <v>-1212</v>
       </c>
       <c r="K77" s="5">
@@ -3967,19 +6632,32 @@
         <v>-9</v>
       </c>
       <c r="N77" s="5"/>
-      <c r="Q77" s="3">
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5">
+        <v>0</v>
+      </c>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="AB77" s="3">
         <v>-101</v>
       </c>
-      <c r="R77" s="3">
+      <c r="AC77" s="3">
         <v>0</v>
       </c>
-      <c r="S77" s="3">
+      <c r="AD77" s="3">
         <v>-2682</v>
       </c>
     </row>
-    <row r="78" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3997,7 +6675,7 @@
         <v>-95</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="99"/>
         <v>-99</v>
       </c>
       <c r="K78" s="5">
@@ -4011,19 +6689,32 @@
         <v>-125</v>
       </c>
       <c r="N78" s="5"/>
-      <c r="Q78" s="3">
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5">
+        <v>-57</v>
+      </c>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="AB78" s="3">
         <v>-395</v>
       </c>
-      <c r="R78" s="3">
+      <c r="AC78" s="3">
         <v>-419</v>
       </c>
-      <c r="S78" s="3">
+      <c r="AD78" s="3">
         <v>-348</v>
       </c>
     </row>
-    <row r="79" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -4034,15 +6725,15 @@
         <v>-1558</v>
       </c>
       <c r="H79" s="5">
-        <f t="shared" ref="H79:J79" si="51">SUM(H76:H78)</f>
+        <f t="shared" ref="H79:J79" si="100">SUM(H76:H78)</f>
         <v>-107</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="100"/>
         <v>-133</v>
       </c>
       <c r="J79" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="100"/>
         <v>-1739</v>
       </c>
       <c r="K79" s="5">
@@ -4058,20 +6749,34 @@
         <v>-103</v>
       </c>
       <c r="N79" s="5"/>
-      <c r="Q79" s="3">
-        <f>SUM(Q76:Q78)</f>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5">
+        <f>SUM(U76:U78)</f>
+        <v>-47</v>
+      </c>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="AB79" s="3">
+        <f>SUM(AB76:AB78)</f>
         <v>-456</v>
       </c>
-      <c r="R79" s="3">
-        <f>SUM(R76:R78)</f>
+      <c r="AC79" s="3">
+        <f>SUM(AC76:AC78)</f>
         <v>-414</v>
       </c>
-      <c r="S79" s="3">
-        <f t="shared" ref="R79:S79" si="52">SUM(S76:S78)</f>
+      <c r="AD79" s="3">
+        <f t="shared" ref="AD79" si="101">SUM(AD76:AD78)</f>
         <v>-3537</v>
       </c>
     </row>
-    <row r="80" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -4084,10 +6789,21 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
-    </row>
-    <row r="81" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+    </row>
+    <row r="81" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -4106,7 +6822,7 @@
         <v>-797</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" ref="J81:J85" si="53">+S81-I81-H81-G81</f>
+        <f t="shared" ref="J81:J85" si="102">+AD81-I81-H81-G81</f>
         <v>-999</v>
       </c>
       <c r="K81" s="5">
@@ -4121,22 +6837,35 @@
         <v>-1200</v>
       </c>
       <c r="N81" s="5"/>
-      <c r="Q81" s="3">
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5">
+        <v>-2500</v>
+      </c>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="AB81" s="3">
         <f>-2750+233</f>
         <v>-2517</v>
       </c>
-      <c r="R81" s="3">
+      <c r="AC81" s="3">
         <f>-3050+270</f>
         <v>-2780</v>
       </c>
-      <c r="S81" s="3">
+      <c r="AD81" s="3">
         <f>-3950+291</f>
         <v>-3659</v>
       </c>
     </row>
-    <row r="82" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -4154,7 +6883,7 @@
         <v>-122</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="102"/>
         <v>-117</v>
       </c>
       <c r="K82" s="5">
@@ -4168,19 +6897,32 @@
         <v>103</v>
       </c>
       <c r="N82" s="5"/>
-      <c r="Q82" s="3">
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5">
+        <v>96</v>
+      </c>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="AB82" s="3">
         <v>-440</v>
       </c>
-      <c r="R82" s="3">
+      <c r="AC82" s="3">
         <v>-681</v>
       </c>
-      <c r="S82" s="3">
+      <c r="AD82" s="3">
         <v>-719</v>
       </c>
     </row>
-    <row r="83" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -4198,7 +6940,7 @@
         <v>20</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="102"/>
         <v>38</v>
       </c>
       <c r="K83" s="5">
@@ -4212,70 +6954,97 @@
         <v>37</v>
       </c>
       <c r="N83" s="5"/>
-      <c r="Q83" s="3">
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5">
+        <v>-49</v>
+      </c>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="AB83" s="3">
         <v>11</v>
       </c>
-      <c r="R83" s="3">
+      <c r="AC83" s="3">
         <f>-21+3144-3150</f>
         <v>-27</v>
       </c>
-      <c r="S83" s="3">
+      <c r="AD83" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5">
-        <f>SUM(G81:G83)</f>
+        <f t="shared" ref="G84:M84" si="103">SUM(G81:G83)</f>
         <v>-1244</v>
       </c>
       <c r="H84" s="5">
-        <f>SUM(H81:H83)</f>
+        <f t="shared" si="103"/>
         <v>-1080</v>
       </c>
       <c r="I84" s="5">
-        <f>SUM(I81:I83)</f>
+        <f t="shared" si="103"/>
         <v>-899</v>
       </c>
       <c r="J84" s="5">
-        <f>SUM(J81:J83)</f>
+        <f t="shared" si="103"/>
         <v>-1078</v>
       </c>
       <c r="K84" s="5">
-        <f>SUM(K81:K83)</f>
+        <f t="shared" si="103"/>
         <v>-2604</v>
       </c>
       <c r="L84" s="5">
-        <f>SUM(L81:L83)</f>
+        <f t="shared" si="103"/>
         <v>-1250</v>
       </c>
       <c r="M84" s="5">
-        <f>SUM(M81:M83)</f>
+        <f t="shared" si="103"/>
         <v>-1060</v>
       </c>
       <c r="N84" s="5"/>
-      <c r="Q84" s="3">
-        <f t="shared" ref="Q84:R84" si="54">SUM(Q81:Q83)</f>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5">
+        <f>SUM(U81:U83)</f>
+        <v>-2453</v>
+      </c>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="AB84" s="3">
+        <f t="shared" ref="AB84:AC84" si="104">SUM(AB81:AB83)</f>
         <v>-2946</v>
       </c>
-      <c r="R84" s="3">
-        <f t="shared" si="54"/>
+      <c r="AC84" s="3">
+        <f t="shared" si="104"/>
         <v>-3488</v>
       </c>
-      <c r="S84" s="3">
-        <f>SUM(S81:S83)</f>
+      <c r="AD84" s="3">
+        <f>SUM(AD81:AD83)</f>
         <v>-4301</v>
       </c>
     </row>
-    <row r="85" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -4293,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="102"/>
         <v>-28</v>
       </c>
       <c r="K85" s="5">
@@ -4307,64 +7076,82 @@
         <v>-36</v>
       </c>
       <c r="N85" s="5"/>
-      <c r="Q85" s="3">
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5">
+        <v>12</v>
+      </c>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="AB85" s="3">
         <v>-13</v>
       </c>
-      <c r="R85" s="3">
+      <c r="AC85" s="3">
         <v>3</v>
       </c>
-      <c r="S85" s="3">
+      <c r="AD85" s="3">
         <v>-26</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G86" s="5">
-        <f>G85+G84+G79+G74</f>
+        <f t="shared" ref="G86:M86" si="105">G85+G84+G79+G74</f>
         <v>-1026</v>
       </c>
       <c r="H86" s="5">
-        <f>H85+H84+H79+H74</f>
+        <f t="shared" si="105"/>
         <v>798</v>
       </c>
       <c r="I86" s="5">
-        <f>I85+I84+I79+I74</f>
+        <f t="shared" si="105"/>
         <v>373</v>
       </c>
       <c r="J86" s="5">
-        <f>J85+J84+J79+J74</f>
+        <f t="shared" si="105"/>
         <v>-779</v>
       </c>
       <c r="K86" s="5">
-        <f>K85+K84+K79+K74</f>
+        <f t="shared" si="105"/>
         <v>-1105</v>
       </c>
       <c r="L86" s="5">
-        <f>L85+L84+L79+L74</f>
+        <f t="shared" si="105"/>
         <v>626</v>
       </c>
       <c r="M86" s="5">
-        <f>M85+M84+M79+M74</f>
+        <f t="shared" si="105"/>
         <v>505</v>
       </c>
-      <c r="Q86" s="5">
-        <f t="shared" ref="Q86:S86" si="55">Q85+Q84+Q79+Q74</f>
+      <c r="N86" s="5"/>
+      <c r="U86" s="5">
+        <f>+U85+U84+U79+U74</f>
+        <v>-467</v>
+      </c>
+      <c r="AB86" s="5">
+        <f t="shared" ref="AB86:AD86" si="106">AB85+AB84+AB79+AB74</f>
         <v>1007</v>
       </c>
-      <c r="R86" s="5">
-        <f t="shared" si="55"/>
+      <c r="AC86" s="5">
+        <f t="shared" si="106"/>
         <v>1828</v>
       </c>
-      <c r="S86" s="5">
-        <f t="shared" si="55"/>
+      <c r="AD86" s="5">
+        <f t="shared" si="106"/>
         <v>-634</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J88" s="5">
         <f>SUM(G74:J74)</f>
@@ -4382,73 +7169,75 @@
         <f>SUM(J74:M74)</f>
         <v>7579</v>
       </c>
-      <c r="Q88" s="3">
-        <f>+Q74</f>
+      <c r="N88" s="5"/>
+      <c r="AB88" s="3">
+        <f>+AB74</f>
         <v>4422</v>
       </c>
-      <c r="R88" s="3">
-        <f>+R74</f>
+      <c r="AC88" s="3">
+        <f>+AC74</f>
         <v>5727</v>
       </c>
-      <c r="S88" s="3">
-        <f>+S74</f>
+      <c r="AD88" s="3">
+        <f>+AD74</f>
         <v>7230</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC89" s="13">
+        <f>+AC88/AB88-1</f>
+        <v>0.2951153324287652</v>
+      </c>
+      <c r="AD89" s="13">
+        <f>+AD88/AC88-1</f>
+        <v>0.26244106862231531</v>
+      </c>
+    </row>
+    <row r="90" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="R89" s="13">
-        <f>+R88/Q88-1</f>
-        <v>0.2951153324287652</v>
-      </c>
-      <c r="S89" s="13">
-        <f>+S88/R88-1</f>
-        <v>0.26244106862231531</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="J90" s="5">
         <f>+J88+SUM(G78:J78)</f>
         <v>6882</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" ref="K90:M90" si="56">+K88+SUM(H78:K78)</f>
+        <f t="shared" ref="K90:M90" si="107">+K88+SUM(H78:K78)</f>
         <v>6838</v>
       </c>
       <c r="L90" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="107"/>
         <v>6859</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="107"/>
         <v>7129</v>
       </c>
-      <c r="Q90" s="3">
-        <f t="shared" ref="Q90:S90" si="57">+Q78+Q74</f>
+      <c r="N90" s="5"/>
+      <c r="AB90" s="3">
+        <f t="shared" ref="AB90:AC90" si="108">+AB78+AB74</f>
         <v>4027</v>
       </c>
-      <c r="R90" s="3">
-        <f t="shared" si="57"/>
+      <c r="AC90" s="3">
+        <f t="shared" si="108"/>
         <v>5308</v>
       </c>
-      <c r="S90" s="3">
-        <f>+S78+S74</f>
+      <c r="AD90" s="3">
+        <f>+AD78+AD74</f>
         <v>6882</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13">
-        <f t="shared" ref="Q91:R91" si="58">+R90/Q90-1</f>
+    <row r="91" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AB91" s="13"/>
+      <c r="AC91" s="13">
+        <f t="shared" ref="AC91" si="109">+AC90/AB90-1</f>
         <v>0.31810280605910113</v>
       </c>
-      <c r="S91" s="13">
-        <f>+S90/R90-1</f>
+      <c r="AD91" s="13">
+        <f>+AD90/AC90-1</f>
         <v>0.29653353428786744</v>
       </c>
     </row>
@@ -4460,5 +7249,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D30B68-BBAF-42D9-9BEF-2766C9909829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477F3563-B86B-499D-846A-AE1D7565DECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32640" yWindow="1365" windowWidth="31650" windowHeight="18690" xr2:uid="{B3F12390-B803-41F7-A0B1-65A97656B711}"/>
+    <workbookView xWindow="-25425" yWindow="1110" windowWidth="25545" windowHeight="17280" activeTab="1" xr2:uid="{B3F12390-B803-41F7-A0B1-65A97656B711}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -984,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A6FF0E-5644-4F51-A6BC-5804C047E9B5}">
   <dimension ref="B3:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1123,11 +1123,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E241C3-CEF2-4D80-8F27-1C06F4DB1898}">
   <dimension ref="A1:EC91"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AB12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP35" sqref="AP35"/>
+      <selection pane="bottomRight" activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
